--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26207"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F829F8739352CC39261FC0A11170F86541F87B2D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="decodifica" sheetId="1" r:id="rId1"/>
+    <sheet name="decodifica" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="411">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -47,6 +44,24 @@
     <t>A</t>
   </si>
   <si>
+    <t>11111100</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni – resa dal padre – bambino nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_002</t>
+  </si>
+  <si>
+    <t>11111200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_003</t>
+  </si>
+  <si>
     <t>11112000</t>
   </si>
   <si>
@@ -56,6 +71,15 @@
     <t>Dic_Nasc_004</t>
   </si>
   <si>
+    <t>11112100</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni – resa dalla madre – bambino nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_005</t>
+  </si>
+  <si>
     <t>11112200</t>
   </si>
   <si>
@@ -74,6 +98,51 @@
     <t>Dic_Nasc_006</t>
   </si>
   <si>
+    <t>11113100</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre con presenza madre – bambino nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_007</t>
+  </si>
+  <si>
+    <t>11114000</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni – resa dal procuratore del padre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_008</t>
+  </si>
+  <si>
+    <t>11114100</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni – resa dal procuratore del padre – bambino nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_009</t>
+  </si>
+  <si>
+    <t>11115000</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni – resa dall’ostetrica o sanitario o altra persona che ha assistito al parto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_010</t>
+  </si>
+  <si>
+    <t>11115100</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni – resa dall’ostetrica o sanitario o altra persona che ha assistito al parto – bambino nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_011</t>
+  </si>
+  <si>
     <t>11116000</t>
   </si>
   <si>
@@ -83,6 +152,63 @@
     <t>Dic_Nasc_089</t>
   </si>
   <si>
+    <t>11121000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal padre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_014</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>11121100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC di filiazione di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_012</t>
+  </si>
+  <si>
+    <t>11121200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_013</t>
+  </si>
+  <si>
+    <t>11122000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dalla madre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_015</t>
+  </si>
+  <si>
+    <t>11123000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal padre con presenza madre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_016</t>
+  </si>
+  <si>
+    <t>11124000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal procuratore del padre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_017</t>
+  </si>
+  <si>
     <t>11125000</t>
   </si>
   <si>
@@ -92,9 +218,6 @@
     <t>Dic_Nasc_018</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>11211004</t>
   </si>
   <si>
@@ -383,6 +506,15 @@
     <t>Dic_Nasc_071</t>
   </si>
   <si>
+    <t>11423020</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal padre con presenza madre di bimbo riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_073</t>
+  </si>
+  <si>
     <t>11424020</t>
   </si>
   <si>
@@ -431,7 +563,7 @@
     <t>12214300</t>
   </si>
   <si>
-    <t>Riconoscimento di nascituro da parte di entrambi i genitori</t>
+    <t>Riconoscimento di nascituro da parte del padre con presenza della madre</t>
   </si>
   <si>
     <t>Rico_003</t>
@@ -440,13 +572,70 @@
     <t>12216300</t>
   </si>
   <si>
+    <t>Riconoscimento di nascituro da parte della madre con presenza del padre</t>
+  </si>
+  <si>
     <t>Rico_016</t>
   </si>
   <si>
+    <t>12221122</t>
+  </si>
+  <si>
+    <t>Riconoscimento paterno di figlio ultraquattordicenne gia' riconosciuto dalla madre</t>
+  </si>
+  <si>
+    <t>Rico_004</t>
+  </si>
+  <si>
+    <t>12221123</t>
+  </si>
+  <si>
+    <t>RICONOSCIMENTO PATERNO DI FIGLIO DI IGNOTI ULTRA14ENNE</t>
+  </si>
+  <si>
+    <t>Rico_005</t>
+  </si>
+  <si>
+    <t>12221212</t>
+  </si>
+  <si>
+    <t>Riconoscimento paterno di figlio infraquattordicenne gia' riconosciuto dalla madre</t>
+  </si>
+  <si>
+    <t>Rico_006</t>
+  </si>
+  <si>
+    <t>12222121</t>
+  </si>
+  <si>
+    <t>Riconoscimento materno di figlio ultraquattordicenne già riconsciuto dal padre</t>
+  </si>
+  <si>
+    <t>Rico_007</t>
+  </si>
+  <si>
+    <t>12222123</t>
+  </si>
+  <si>
+    <t>Riconoscimento materno di figlio di ignoti ultraquattordicenne</t>
+  </si>
+  <si>
+    <t>Rico_008</t>
+  </si>
+  <si>
+    <t>12222203</t>
+  </si>
+  <si>
+    <t>Riconoscimento materno di figlio di ignoti infraquattordicenne</t>
+  </si>
+  <si>
+    <t>Rico_009</t>
+  </si>
+  <si>
     <t>12323100</t>
   </si>
   <si>
-    <t>Assenso al riconoscimento da parte del figlio ultrasedicenne</t>
+    <t>Assenso al riconoscimento da parte del figlio ultraquattordicenne</t>
   </si>
   <si>
     <t>Rico_013</t>
@@ -455,7 +644,7 @@
     <t>12421200</t>
   </si>
   <si>
-    <t>Consenso paterno al riconoscimento materno del figlio infrasedicenne</t>
+    <t>Consenso paterno al riconoscimento materno del figlio infraquattordicenne</t>
   </si>
   <si>
     <t>Rico_014</t>
@@ -464,7 +653,7 @@
     <t>12422200</t>
   </si>
   <si>
-    <t>Consenso materno al riconoscimento paterno del figlio infrasedicenne</t>
+    <t>Consenso materno al riconoscimento paterno del figlio infraquattordicenne</t>
   </si>
   <si>
     <t>Rico_015</t>
@@ -497,6 +686,42 @@
     <t>Trascr_006</t>
   </si>
   <si>
+    <t>1344</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza di adozione di maggiorenne emessa dal Tribunale</t>
+  </si>
+  <si>
+    <t>Trascr_016</t>
+  </si>
+  <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>Trascrizione provvedimento straniero di adozione richiesta da un privato</t>
+  </si>
+  <si>
+    <t>Trascr_018</t>
+  </si>
+  <si>
+    <t>1352</t>
+  </si>
+  <si>
+    <t>Trascrizione del provvedimento straniero di adozione di minore riconosciuto valido dal Tribunale dei minori (convenzione Aja 29.5.1993)</t>
+  </si>
+  <si>
+    <t>Trascr_019</t>
+  </si>
+  <si>
+    <t>1365</t>
+  </si>
+  <si>
+    <t>Trascrizione della comunicazione scritta trasmessa dal direttore dell'istituto che accoglie un minore abbandonato</t>
+  </si>
+  <si>
+    <t>Trascr_004</t>
+  </si>
+  <si>
     <t>1399</t>
   </si>
   <si>
@@ -584,6 +809,24 @@
     <t>Morte_007</t>
   </si>
   <si>
+    <t>2221</t>
+  </si>
+  <si>
+    <t>Trascrizioni di sentenza dichiarazione di scomparsa per disastri aerei o a bordo di navi</t>
+  </si>
+  <si>
+    <t>Morte_008</t>
+  </si>
+  <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>Trascrizioni di sentenze estera di morte presunta o scomparsa o assenza richiesta da pubblica autorità</t>
+  </si>
+  <si>
+    <t>Morte_009</t>
+  </si>
+  <si>
     <t>2299</t>
   </si>
   <si>
@@ -791,6 +1034,24 @@
     <t>UnCiv_002</t>
   </si>
   <si>
+    <t>412111</t>
+  </si>
+  <si>
+    <t>Unione Civile con Delega di altro Comune nella casa comunale</t>
+  </si>
+  <si>
+    <t>UnCiv_004</t>
+  </si>
+  <si>
+    <t>412211</t>
+  </si>
+  <si>
+    <t>Unione Civile con Delega di altro Comune fuori dalla casa comunale</t>
+  </si>
+  <si>
+    <t>UnCiv_005</t>
+  </si>
+  <si>
     <t>419999</t>
   </si>
   <si>
@@ -866,7 +1127,7 @@
     <t>51101</t>
   </si>
   <si>
-    <t>straniero o apolide, del quale il padre o la madre
+    <t>Straniero o apolide, del quale il padre o la madre
 o uno dei ascendenti in linea retta di secondo grado sono stati cittadini
 per nascita: acquisto mediante
 prestazione del servizio militare per lo Stato italiano</t>
@@ -878,7 +1139,7 @@
     <t>51103</t>
   </si>
   <si>
-    <t>straniero nato in Italia che vi abbia risieduto legalmente senza interruzioni fino alla maggiore età</t>
+    <t>Straniero nato in Italia che vi abbia risieduto legalmente senza interruzioni fino alla maggiore età</t>
   </si>
   <si>
     <t>Citt_011</t>
@@ -887,7 +1148,7 @@
     <t>51104</t>
   </si>
   <si>
-    <t>straniero riconosciuto durante la maggiore età da cittadino italiano</t>
+    <t>Straniero riconosciuto durante la maggiore età da cittadino italiano</t>
   </si>
   <si>
     <t>Citt_013</t>
@@ -896,7 +1157,7 @@
     <t>51105</t>
   </si>
   <si>
-    <t>acquisto automatico di cittadina straniera che si sposa con cittadino italiano fino al 27 aprile 1983</t>
+    <t>Acquisto automatico di cittadina straniera che si sposa con cittadino italiano fino al 27 aprile 1983</t>
   </si>
   <si>
     <t>Citt_017</t>
@@ -914,7 +1175,7 @@
     <t>51108</t>
   </si>
   <si>
-    <t>straniero o dell'apolide, del quale il padre o la madre
+    <t>Straniero o dell'apolide, del quale il padre o la madre
 o uno degli ascendenti in linea retta di secondo grado sono stati cittadini
 per nascita: acquisto assunzione di
 pubblico impiego alle dipendenze dello Stato</t>
@@ -926,7 +1187,7 @@
     <t>51303</t>
   </si>
   <si>
-    <t>riacquisto per residenza in Italia</t>
+    <t>Riacquisto per residenza in Italia</t>
   </si>
   <si>
     <t>Citt_033</t>
@@ -935,7 +1196,7 @@
     <t>51304</t>
   </si>
   <si>
-    <t>riacquisto per abbandono dei servigi allo stato estero</t>
+    <t>Riacquisto per abbandono dei servigi allo stato estero</t>
   </si>
   <si>
     <t>Citt_036</t>
@@ -953,10 +1214,34 @@
     <t>52111</t>
   </si>
   <si>
-    <t>acquisto alla nascita per iure soli: figlio di genitori che non trasmettono la cittadinanza italiana</t>
+    <t>Acquisto alla nascita per iure soli: figlio di genitori che non trasmettono la cittadinanza italiana</t>
   </si>
   <si>
     <t>Citt_001</t>
+  </si>
+  <si>
+    <t>52112</t>
+  </si>
+  <si>
+    <t>Citt_006</t>
+  </si>
+  <si>
+    <t>52141</t>
+  </si>
+  <si>
+    <t>Figlio minore riconosciuto da cittadino italiano</t>
+  </si>
+  <si>
+    <t>Citt_002</t>
+  </si>
+  <si>
+    <t>52142</t>
+  </si>
+  <si>
+    <t>Adozione di minore in casi particolari art. 44 l. 184/1983 o adozione nazionale art 25 l. 184/1983 e art. 35 comma 4</t>
+  </si>
+  <si>
+    <t>Citt_003</t>
   </si>
   <si>
     <t>52999</t>
@@ -971,23 +1256,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -995,10 +1281,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1006,344 +1292,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="173.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="173.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.6640625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.06640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1377,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +1373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1411,7 +1390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1428,7 +1407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -1445,7 +1424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1459,18 +1438,18 @@
         <v>8</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -1479,15 +1458,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
@@ -1496,15 +1475,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -1513,15 +1492,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -1530,15 +1509,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
@@ -1547,15 +1526,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -1564,15 +1543,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -1581,24 +1560,24 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="2" t="s">
         <v>50</v>
       </c>
@@ -1612,10 +1591,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1629,10 +1608,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1646,10 +1625,10 @@
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
@@ -1663,10 +1642,10 @@
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
@@ -1680,10 +1659,10 @@
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
@@ -1697,10 +1676,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -1717,7 +1696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
@@ -1731,10 +1710,10 @@
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
@@ -1748,10 +1727,10 @@
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
@@ -1765,10 +1744,10 @@
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
@@ -1782,10 +1761,10 @@
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="2" t="s">
         <v>83</v>
       </c>
@@ -1799,10 +1778,10 @@
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="2" t="s">
         <v>86</v>
       </c>
@@ -1816,10 +1795,10 @@
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="2" t="s">
         <v>89</v>
       </c>
@@ -1833,10 +1812,10 @@
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="2" t="s">
         <v>92</v>
       </c>
@@ -1850,10 +1829,10 @@
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="2" t="s">
         <v>95</v>
       </c>
@@ -1867,10 +1846,10 @@
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="2" t="s">
         <v>98</v>
       </c>
@@ -1884,10 +1863,10 @@
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="2" t="s">
         <v>101</v>
       </c>
@@ -1901,10 +1880,10 @@
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="2" t="s">
         <v>104</v>
       </c>
@@ -1918,10 +1897,10 @@
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="2" t="s">
         <v>107</v>
       </c>
@@ -1938,7 +1917,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36">
       <c r="A36" s="2" t="s">
         <v>110</v>
       </c>
@@ -1955,7 +1934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37">
       <c r="A37" s="2" t="s">
         <v>113</v>
       </c>
@@ -1969,10 +1948,10 @@
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="2" t="s">
         <v>116</v>
       </c>
@@ -1986,10 +1965,10 @@
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
@@ -2003,10 +1982,10 @@
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="2" t="s">
         <v>122</v>
       </c>
@@ -2020,10 +1999,10 @@
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="2" t="s">
         <v>125</v>
       </c>
@@ -2034,285 +2013,285 @@
         <v>127</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2" t="s">
+      <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="2" t="s">
+      <c r="C52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="E56" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="2" t="s">
         <v>179</v>
       </c>
@@ -2323,404 +2302,404 @@
         <v>181</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
+      <c r="B60" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
+      <c r="B61" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C61" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D68" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D74" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="C76" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82">
       <c r="A82" s="2" t="s">
         <v>252</v>
       </c>
@@ -2731,13 +2710,13 @@
         <v>254</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83" s="2" t="s">
         <v>255</v>
       </c>
@@ -2748,605 +2727,880 @@
         <v>257</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85">
       <c r="A85" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1632c0f2-5623-49d0-b15e-384a6acdbfc6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100335471EDD44E874DAB7180C0493F4ECE" ma:contentTypeVersion="15" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="85959bbc5d8178fb694bc2caf2439f0b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1632c0f2-5623-49d0-b15e-384a6acdbfc6" xmlns:ns3="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f816d1a8925a644684fbd742cefb2ae2" ns2:_="" ns3:_="">
-    <xsd:import namespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6"/>
-    <xsd:import namespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1632c0f2-5623-49d0-b15e-384a6acdbfc6" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Tag immagine" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="febfd348-e945-4c65-a9c0-c21aadb6feb0" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Condiviso con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Condiviso con dettagli" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="21" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{63e8363e-42d2-43ab-ac90-61e1d0a52236}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="798a2757-e4cc-4bd4-8141-0f6c8aeddcd8">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo di contenuto"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titolo"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C219C7-B7D6-403C-9562-EABBAF19C345}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{151BEBAD-72F6-43A6-A000-C81B9D5CF9EF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B54AA4-CCC8-457F-9F2A-E5FEB542C575}"/>
 </file>
--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="456">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -479,6 +479,15 @@
     <t>Dic_Nasc_064</t>
   </si>
   <si>
+    <t>11416020</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge resa dalla madre con presenza padre di bimbo riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_091</t>
+  </si>
+  <si>
     <t>11421010</t>
   </si>
   <si>
@@ -596,6 +605,15 @@
     <t>Rico_005</t>
   </si>
   <si>
+    <t>12221203</t>
+  </si>
+  <si>
+    <t>RICONOSCIMENTO PATERNO DI FIGLIO DI IGNOTI INFRA14ENNE</t>
+  </si>
+  <si>
+    <t>Rico_020</t>
+  </si>
+  <si>
     <t>12221212</t>
   </si>
   <si>
@@ -632,6 +650,33 @@
     <t>Rico_009</t>
   </si>
   <si>
+    <t>12222231</t>
+  </si>
+  <si>
+    <t>Riconoscimento materno di figlio infraquattordicenne gia' riconosciuto dal padre</t>
+  </si>
+  <si>
+    <t>Rico_010</t>
+  </si>
+  <si>
+    <t>12226123</t>
+  </si>
+  <si>
+    <t>Riconoscimento di figlio di ignoti ultraquattordicenne da parte della madre con presenza padre</t>
+  </si>
+  <si>
+    <t>Rico_017</t>
+  </si>
+  <si>
+    <t>12226203</t>
+  </si>
+  <si>
+    <t>Riconoscimento di figlio di ignoti infraquattordicenne da parte della madre con presenza padre</t>
+  </si>
+  <si>
+    <t>Rico_018</t>
+  </si>
+  <si>
     <t>12323100</t>
   </si>
   <si>
@@ -686,6 +731,42 @@
     <t>Trascr_006</t>
   </si>
   <si>
+    <t>1314</t>
+  </si>
+  <si>
+    <t>Trascrizione atto di nascita resa alla direzione sanitaria</t>
+  </si>
+  <si>
+    <t>Trascr_022</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di paternità richiesta dall’interessato</t>
+  </si>
+  <si>
+    <t>Trascr_024</t>
+  </si>
+  <si>
+    <t>1323</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di paternità o maternità su richiesta dell’autorità diplomatica o consolare</t>
+  </si>
+  <si>
+    <t>Trascr_009</t>
+  </si>
+  <si>
+    <t>1343</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza di revoca della adozione di minore in casi particolari</t>
+  </si>
+  <si>
+    <t>Trascr_015</t>
+  </si>
+  <si>
     <t>1344</t>
   </si>
   <si>
@@ -713,6 +794,15 @@
     <t>Trascr_019</t>
   </si>
   <si>
+    <t>1354</t>
+  </si>
+  <si>
+    <t>Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta dall'autorita' diplomatica o consolare</t>
+  </si>
+  <si>
+    <t>Trascr_021</t>
+  </si>
+  <si>
     <t>1365</t>
   </si>
   <si>
@@ -827,6 +917,15 @@
     <t>Morte_009</t>
   </si>
   <si>
+    <t>2224</t>
+  </si>
+  <si>
+    <t>Trascrizioni di sentenze di accertamento morte già dichiarata presunta</t>
+  </si>
+  <si>
+    <t>Morte_011</t>
+  </si>
+  <si>
     <t>2299</t>
   </si>
   <si>
@@ -881,15 +980,6 @@
     <t>Matr_005</t>
   </si>
   <si>
-    <t>312212</t>
-  </si>
-  <si>
-    <t>Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale in Imminente Pericolo di Vita</t>
-  </si>
-  <si>
-    <t>Matr_006</t>
-  </si>
-  <si>
     <t>319999</t>
   </si>
   <si>
@@ -1034,6 +1124,15 @@
     <t>UnCiv_002</t>
   </si>
   <si>
+    <t>411212</t>
+  </si>
+  <si>
+    <t>Unione Civile fuori dalla casa comunale in Imminente Pericolo di Vita</t>
+  </si>
+  <si>
+    <t>UnCiv_003</t>
+  </si>
+  <si>
     <t>412111</t>
   </si>
   <si>
@@ -1086,6 +1185,24 @@
   </si>
   <si>
     <t>Trascr_UnCiv_999</t>
+  </si>
+  <si>
+    <t>441000</t>
+  </si>
+  <si>
+    <t>Manifestazione congiunta di volontà di scioglimento dell'unione civile tra persone dello stesso sesso</t>
+  </si>
+  <si>
+    <t>Sciogl_UnCiv_001</t>
+  </si>
+  <si>
+    <t>442000</t>
+  </si>
+  <si>
+    <t>Manifestazione di volontà di scioglimento dell'unione civile tra persone dello stesso sesso di una sola parte</t>
+  </si>
+  <si>
+    <t>Sciogl_UnCiv_002</t>
   </si>
   <si>
     <t>443000</t>
@@ -1172,6 +1289,15 @@
     <t>Citt_043</t>
   </si>
   <si>
+    <t>51107</t>
+  </si>
+  <si>
+    <t>Prestazione di giuramento a seguito di decreto (con impedimenti)</t>
+  </si>
+  <si>
+    <t>Citt_044</t>
+  </si>
+  <si>
     <t>51108</t>
   </si>
   <si>
@@ -1242,6 +1368,15 @@
   </si>
   <si>
     <t>Citt_003</t>
+  </si>
+  <si>
+    <t>52143</t>
+  </si>
+  <si>
+    <t>Figlio minore di chi ha acquista la cittadinanza italiana</t>
+  </si>
+  <si>
+    <t>Citt_004</t>
   </si>
   <si>
     <t>52999</t>
@@ -1309,7 +1444,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2186,7 +2321,7 @@
         <v>8</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2268,41 +2403,41 @@
         <v>172</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="E57" s="2" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>49</v>
@@ -2319,7 +2454,7 @@
         <v>184</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>49</v>
@@ -2336,7 +2471,7 @@
         <v>187</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>49</v>
@@ -2353,7 +2488,7 @@
         <v>190</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>49</v>
@@ -2370,7 +2505,7 @@
         <v>193</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>49</v>
@@ -2387,7 +2522,7 @@
         <v>196</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>49</v>
@@ -2404,7 +2539,7 @@
         <v>199</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>49</v>
@@ -2421,7 +2556,7 @@
         <v>202</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>49</v>
@@ -2438,7 +2573,7 @@
         <v>205</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>49</v>
@@ -2455,7 +2590,7 @@
         <v>208</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>49</v>
@@ -2472,7 +2607,7 @@
         <v>211</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>49</v>
@@ -2489,7 +2624,7 @@
         <v>214</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>49</v>
@@ -2506,10 +2641,10 @@
         <v>217</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71">
@@ -2523,7 +2658,7 @@
         <v>220</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>49</v>
@@ -2540,7 +2675,7 @@
         <v>223</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>49</v>
@@ -2557,7 +2692,7 @@
         <v>226</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>49</v>
@@ -2574,7 +2709,7 @@
         <v>229</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>49</v>
@@ -2591,10 +2726,10 @@
         <v>232</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76">
@@ -2608,7 +2743,7 @@
         <v>235</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>49</v>
@@ -2625,10 +2760,10 @@
         <v>238</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78">
@@ -2642,10 +2777,10 @@
         <v>241</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79">
@@ -2659,7 +2794,7 @@
         <v>244</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>49</v>
@@ -2676,7 +2811,7 @@
         <v>247</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>49</v>
@@ -2693,214 +2828,214 @@
         <v>250</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="D83" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="D85" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>267</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="D87" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="D89" s="2" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="D91" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>288</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="94">
@@ -2914,10 +3049,10 @@
         <v>291</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="95">
@@ -2931,10 +3066,10 @@
         <v>294</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96">
@@ -2948,10 +3083,10 @@
         <v>297</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>9</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97">
@@ -2965,10 +3100,10 @@
         <v>300</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>9</v>
+        <v>288</v>
       </c>
     </row>
     <row r="98">
@@ -2982,10 +3117,10 @@
         <v>303</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="99">
@@ -2999,10 +3134,10 @@
         <v>306</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100">
@@ -3016,10 +3151,10 @@
         <v>309</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
     </row>
     <row r="101">
@@ -3033,10 +3168,10 @@
         <v>312</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102">
@@ -3050,10 +3185,10 @@
         <v>315</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103">
@@ -3067,10 +3202,10 @@
         <v>318</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104">
@@ -3084,10 +3219,10 @@
         <v>321</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
     </row>
     <row r="105">
@@ -3101,10 +3236,10 @@
         <v>324</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
     </row>
     <row r="106">
@@ -3118,10 +3253,10 @@
         <v>327</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>258</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107">
@@ -3135,10 +3270,10 @@
         <v>330</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>174</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108">
@@ -3152,10 +3287,10 @@
         <v>333</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
     </row>
     <row r="109">
@@ -3169,10 +3304,10 @@
         <v>336</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110">
@@ -3186,10 +3321,10 @@
         <v>339</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="111">
@@ -3203,10 +3338,10 @@
         <v>342</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112">
@@ -3220,10 +3355,10 @@
         <v>345</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113">
@@ -3237,10 +3372,10 @@
         <v>348</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="114">
@@ -3254,10 +3389,10 @@
         <v>351</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="115">
@@ -3271,10 +3406,10 @@
         <v>354</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="116">
@@ -3288,10 +3423,10 @@
         <v>357</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117">
@@ -3305,10 +3440,10 @@
         <v>360</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118">
@@ -3322,10 +3457,10 @@
         <v>363</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119">
@@ -3339,10 +3474,10 @@
         <v>366</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>178</v>
+        <v>8</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="120">
@@ -3356,10 +3491,10 @@
         <v>369</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121">
@@ -3373,10 +3508,10 @@
         <v>372</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122">
@@ -3390,10 +3525,10 @@
         <v>375</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="123">
@@ -3407,10 +3542,10 @@
         <v>378</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="124">
@@ -3424,10 +3559,10 @@
         <v>381</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125">
@@ -3441,10 +3576,10 @@
         <v>384</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126">
@@ -3458,10 +3593,10 @@
         <v>387</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="127">
@@ -3475,10 +3610,10 @@
         <v>390</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="128">
@@ -3492,10 +3627,10 @@
         <v>393</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129">
@@ -3509,10 +3644,10 @@
         <v>396</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130">
@@ -3526,10 +3661,10 @@
         <v>399</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131">
@@ -3537,67 +3672,322 @@
         <v>400</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C134" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>174</v>
+      <c r="C145" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="500">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -821,6 +821,42 @@
     <t>Trascr_999</t>
   </si>
   <si>
+    <t>14400000</t>
+  </si>
+  <si>
+    <t>Caso d'uso di servizio (comunicazione da altri comuni)</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_998_1</t>
+  </si>
+  <si>
+    <t>14500000</t>
+  </si>
+  <si>
+    <t>Caso d'uso di servizio (comunicazioni da altre amministrazioni)</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_998_2</t>
+  </si>
+  <si>
+    <t>14630000</t>
+  </si>
+  <si>
+    <t>Annotazione per rettifica</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_118</t>
+  </si>
+  <si>
+    <t>14640000</t>
+  </si>
+  <si>
+    <t>Annotazione per errore materiale</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_119</t>
+  </si>
+  <si>
     <t>2101</t>
   </si>
   <si>
@@ -935,6 +971,30 @@
     <t>Trascr_Morte_999</t>
   </si>
   <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>Morte_998_1</t>
+  </si>
+  <si>
+    <t>2320</t>
+  </si>
+  <si>
+    <t>Morte_998_2</t>
+  </si>
+  <si>
+    <t>2341</t>
+  </si>
+  <si>
+    <t>Morte_012</t>
+  </si>
+  <si>
+    <t>2342</t>
+  </si>
+  <si>
+    <t>Morte_013</t>
+  </si>
+  <si>
     <t>311111</t>
   </si>
   <si>
@@ -1106,6 +1166,30 @@
     <t>Matr_Riconc_001</t>
   </si>
   <si>
+    <t>366999</t>
+  </si>
+  <si>
+    <t>Matr_998_1</t>
+  </si>
+  <si>
+    <t>367999</t>
+  </si>
+  <si>
+    <t>Matr_998_2</t>
+  </si>
+  <si>
+    <t>368699</t>
+  </si>
+  <si>
+    <t>Matr_017</t>
+  </si>
+  <si>
+    <t>368799</t>
+  </si>
+  <si>
+    <t>Matr_018</t>
+  </si>
+  <si>
     <t>411111</t>
   </si>
   <si>
@@ -1239,6 +1323,30 @@
   </si>
   <si>
     <t>Sciogl_UnCiv_999</t>
+  </si>
+  <si>
+    <t>456999</t>
+  </si>
+  <si>
+    <t>UnCiv_998_1</t>
+  </si>
+  <si>
+    <t>457999</t>
+  </si>
+  <si>
+    <t>UnCiv_998_2</t>
+  </si>
+  <si>
+    <t>458699</t>
+  </si>
+  <si>
+    <t>UnCiv_007</t>
+  </si>
+  <si>
+    <t>458799</t>
+  </si>
+  <si>
+    <t>UnCiv_008</t>
   </si>
   <si>
     <t>51101</t>
@@ -1386,6 +1494,30 @@
   </si>
   <si>
     <t>Trascr_Citt_999</t>
+  </si>
+  <si>
+    <t>53599</t>
+  </si>
+  <si>
+    <t>Citt_998_1</t>
+  </si>
+  <si>
+    <t>53699</t>
+  </si>
+  <si>
+    <t>Citt_998_2</t>
+  </si>
+  <si>
+    <t>53719</t>
+  </si>
+  <si>
+    <t>Citt_047</t>
+  </si>
+  <si>
+    <t>53729</t>
+  </si>
+  <si>
+    <t>Citt_048</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2947,10 +3079,10 @@
         <v>271</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>177</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89">
@@ -3001,21 +3133,21 @@
         <v>181</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>281</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>177</v>
@@ -3023,87 +3155,87 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="D93" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="D94" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="D95" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="D96" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="98">
@@ -3120,7 +3252,7 @@
         <v>181</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99">
@@ -3134,10 +3266,10 @@
         <v>306</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100">
@@ -3151,10 +3283,10 @@
         <v>309</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101">
@@ -3171,7 +3303,7 @@
         <v>181</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102">
@@ -3188,7 +3320,7 @@
         <v>181</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103">
@@ -3202,10 +3334,10 @@
         <v>318</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104">
@@ -3213,27 +3345,27 @@
         <v>319</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="D104" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>176</v>
@@ -3244,50 +3376,50 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>177</v>
@@ -3295,203 +3427,203 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>288</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>288</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>288</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>177</v>
@@ -3499,84 +3631,84 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>177</v>
@@ -3584,30 +3716,30 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>181</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>177</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>389</v>
+        <v>270</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>176</v>
@@ -3618,16 +3750,16 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>392</v>
+        <v>273</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>177</v>
@@ -3635,16 +3767,16 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>395</v>
+        <v>276</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>177</v>
@@ -3652,16 +3784,16 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>398</v>
+        <v>279</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>177</v>
@@ -3669,16 +3801,16 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>177</v>
@@ -3686,13 +3818,13 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>181</v>
@@ -3703,16 +3835,16 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>177</v>
@@ -3720,16 +3852,16 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>177</v>
@@ -3737,16 +3869,16 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>177</v>
@@ -3754,16 +3886,16 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>177</v>
@@ -3771,16 +3903,16 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>177</v>
@@ -3788,16 +3920,16 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>177</v>
@@ -3805,16 +3937,16 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>177</v>
@@ -3822,16 +3954,16 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>177</v>
@@ -3839,16 +3971,16 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>177</v>
@@ -3856,16 +3988,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>177</v>
@@ -3873,16 +4005,16 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>177</v>
@@ -3890,16 +4022,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>177</v>
@@ -3907,16 +4039,16 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>177</v>
@@ -3924,16 +4056,16 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>445</v>
+        <v>270</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>177</v>
@@ -3941,16 +4073,16 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>448</v>
+        <v>273</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>177</v>
@@ -3958,16 +4090,16 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>451</v>
+        <v>276</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>177</v>
@@ -3975,18 +4107,358 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="D152" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="B153" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="C153" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>177</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -626,7 +626,7 @@
     <t>12222121</t>
   </si>
   <si>
-    <t>Riconoscimento materno di figlio ultraquattordicenne già riconsciuto dal padre</t>
+    <t>Riconoscimento materno di figlio ultraquattordicenne già riconosciuto dal padre</t>
   </si>
   <si>
     <t>Rico_007</t>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="732">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -107,6 +107,15 @@
     <t>Dic_Nasc_007</t>
   </si>
   <si>
+    <t>11113200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal padre con presenza madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_078</t>
+  </si>
+  <si>
     <t>11114000</t>
   </si>
   <si>
@@ -125,6 +134,15 @@
     <t>Dic_Nasc_009</t>
   </si>
   <si>
+    <t>11114200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal procuratore del padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_079</t>
+  </si>
+  <si>
     <t>11115000</t>
   </si>
   <si>
@@ -143,6 +161,15 @@
     <t>Dic_Nasc_011</t>
   </si>
   <si>
+    <t>11115200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa da sanitario/ostetrica all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_080</t>
+  </si>
+  <si>
     <t>11116000</t>
   </si>
   <si>
@@ -152,6 +179,51 @@
     <t>Dic_Nasc_089</t>
   </si>
   <si>
+    <t>11116100</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni - resa dalla madre con presenza padre – bambino nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_090</t>
+  </si>
+  <si>
+    <t>11116200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_093</t>
+  </si>
+  <si>
+    <t>11117000</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni – resa dal procuratore della madre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_096</t>
+  </si>
+  <si>
+    <t>11117100</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni – resa dal procuratore della madre – bambino nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_097</t>
+  </si>
+  <si>
+    <t>11117200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione nel matrimonio resa dal procuratore della madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_110</t>
+  </si>
+  <si>
     <t>11121000</t>
   </si>
   <si>
@@ -191,6 +263,24 @@
     <t>Dic_Nasc_015</t>
   </si>
   <si>
+    <t>11122100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre all'USC di filiazione di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_081</t>
+  </si>
+  <si>
+    <t>11122200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_085</t>
+  </si>
+  <si>
     <t>11123000</t>
   </si>
   <si>
@@ -200,6 +290,24 @@
     <t>Dic_Nasc_016</t>
   </si>
   <si>
+    <t>11123100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre con presenza madre all'USC di filiazione di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_082</t>
+  </si>
+  <si>
+    <t>11123200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre con presenza madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_086</t>
+  </si>
+  <si>
     <t>11124000</t>
   </si>
   <si>
@@ -209,6 +317,24 @@
     <t>Dic_Nasc_017</t>
   </si>
   <si>
+    <t>11124100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore del padre all'USC di filiazione di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_083</t>
+  </si>
+  <si>
+    <t>11124200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore del padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_087</t>
+  </si>
+  <si>
     <t>11125000</t>
   </si>
   <si>
@@ -218,6 +344,78 @@
     <t>Dic_Nasc_018</t>
   </si>
   <si>
+    <t>11125100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC da ostetrica o altro sanitario di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_084</t>
+  </si>
+  <si>
+    <t>11125200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa da sanitario all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_088</t>
+  </si>
+  <si>
+    <t>11126000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dalla madre con presenza padre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_099</t>
+  </si>
+  <si>
+    <t>11126100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di filiazione di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_094</t>
+  </si>
+  <si>
+    <t>11126200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dalla madre con presenza padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_095</t>
+  </si>
+  <si>
+    <t>11127000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC dal procuratore della madre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_115</t>
+  </si>
+  <si>
+    <t>11127100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore della madre all'USC di filiazione di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_098</t>
+  </si>
+  <si>
+    <t>11127200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal procuratore della madre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_111</t>
+  </si>
+  <si>
     <t>11211004</t>
   </si>
   <si>
@@ -317,6 +515,24 @@
     <t>Dic_Nasc_030</t>
   </si>
   <si>
+    <t>11213100</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_031</t>
+  </si>
+  <si>
+    <t>11213200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_032</t>
+  </si>
+  <si>
     <t>11214000</t>
   </si>
   <si>
@@ -335,6 +551,15 @@
     <t>Dic_Nasc_034</t>
   </si>
   <si>
+    <t>11214200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_035</t>
+  </si>
+  <si>
     <t>11216000</t>
   </si>
   <si>
@@ -353,6 +578,24 @@
     <t>Dic_Nasc_100</t>
   </si>
   <si>
+    <t>11216200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_101</t>
+  </si>
+  <si>
+    <t>11217100</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_112</t>
+  </si>
+  <si>
     <t>11221001</t>
   </si>
   <si>
@@ -434,6 +677,15 @@
     <t>Dic_Nasc_044</t>
   </si>
   <si>
+    <t>11222103</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con il consenso paterno di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_045</t>
+  </si>
+  <si>
     <t>11222202</t>
   </si>
   <si>
@@ -452,6 +704,60 @@
     <t>Dic_Nasc_047</t>
   </si>
   <si>
+    <t>11223000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_048</t>
+  </si>
+  <si>
+    <t>11223100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_049</t>
+  </si>
+  <si>
+    <t>11223200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal padre con presenza madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_050</t>
+  </si>
+  <si>
+    <t>11224000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_051</t>
+  </si>
+  <si>
+    <t>11224100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_052</t>
+  </si>
+  <si>
+    <t>11224200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore del padre di bimbo nato vivo ma morto prima della dichiarazione</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_053</t>
+  </si>
+  <si>
     <t>11226000</t>
   </si>
   <si>
@@ -461,6 +767,60 @@
     <t>Dic_Nasc_102</t>
   </si>
   <si>
+    <t>11226100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_103</t>
+  </si>
+  <si>
+    <t>11226200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dalla madre con presenza padre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_104</t>
+  </si>
+  <si>
+    <t>11227000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre con consenso del padre ad essere nominato</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_105</t>
+  </si>
+  <si>
+    <t>11227100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_106</t>
+  </si>
+  <si>
+    <t>11227200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_107</t>
+  </si>
+  <si>
+    <t>11411010</t>
+  </si>
+  <si>
+    <t>Dichiarazione fuori del matrimonio nei termini di legge resa dal padre, di bimbo riconosciuto da entrambi i genitori prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_060</t>
+  </si>
+  <si>
     <t>11411024</t>
   </si>
   <si>
@@ -470,6 +830,24 @@
     <t>Dic_Nasc_061</t>
   </si>
   <si>
+    <t>11412010</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dalla madre di bimbo riconosciuto prima della nascita da parte di entrambi i genitori</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_062</t>
+  </si>
+  <si>
+    <t>11412020</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dalla madre di bimbo riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_063</t>
+  </si>
+  <si>
     <t>11413020</t>
   </si>
   <si>
@@ -479,6 +857,42 @@
     <t>Dic_Nasc_064</t>
   </si>
   <si>
+    <t>11414010</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore del padre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_067</t>
+  </si>
+  <si>
+    <t>11414020</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore del padre, di bimbo riconosciuto da parte della madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_068</t>
+  </si>
+  <si>
+    <t>11415010</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio nei termini di legge, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_065</t>
+  </si>
+  <si>
+    <t>11415020</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiiazione fuori del matrimonio nei termini di legge resa dall'ostetrica o da sanitario o da altra persona che ha assistito al parto, di bimbo che è stato riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_066</t>
+  </si>
+  <si>
     <t>11416020</t>
   </si>
   <si>
@@ -488,6 +902,15 @@
     <t>Dic_Nasc_091</t>
   </si>
   <si>
+    <t>11417010</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa da procuratore speciale della madre, di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_108</t>
+  </si>
+  <si>
     <t>11421010</t>
   </si>
   <si>
@@ -515,6 +938,15 @@
     <t>Dic_Nasc_071</t>
   </si>
   <si>
+    <t>11422020</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dalla madre di bimbo riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_072</t>
+  </si>
+  <si>
     <t>11423020</t>
   </si>
   <si>
@@ -533,6 +965,42 @@
     <t>Dic_Nasc_076</t>
   </si>
   <si>
+    <t>11425010</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto da parte di entrambi i genitori prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_074</t>
+  </si>
+  <si>
+    <t>11426020</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall madre con presenza padre di bimbo riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_092</t>
+  </si>
+  <si>
+    <t>11427020</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dal procuratore della madre di bimbo riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_117</t>
+  </si>
+  <si>
+    <t>11315000</t>
+  </si>
+  <si>
+    <t>Dichiarazione resa da ostetrica o  altra persona che ha assitito al parto - fuori matrimonio (ostretica o altro personale sanitario)</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_054</t>
+  </si>
+  <si>
     <t>11999999</t>
   </si>
   <si>
@@ -623,6 +1091,15 @@
     <t>Rico_006</t>
   </si>
   <si>
+    <t>12221422</t>
+  </si>
+  <si>
+    <t>RICONOSCIMENTO PATERNO DI FIGLIO MAGGIORENNE GIA' RICONOSCIUTO DALLA MADRE</t>
+  </si>
+  <si>
+    <t>Rico_019</t>
+  </si>
+  <si>
     <t>12222121</t>
   </si>
   <si>
@@ -659,6 +1136,24 @@
     <t>Rico_010</t>
   </si>
   <si>
+    <t>12224123</t>
+  </si>
+  <si>
+    <t>Riconoscimento di figlio di ignoti ultraquattordicenne da parte del padre con presenza della madre</t>
+  </si>
+  <si>
+    <t>Rico_011</t>
+  </si>
+  <si>
+    <t>12224203</t>
+  </si>
+  <si>
+    <t>Riconoscimento di figlio di ignoti infraquattordicenne da parte del padre con presenza madre</t>
+  </si>
+  <si>
+    <t>Rico_012</t>
+  </si>
+  <si>
     <t>12226123</t>
   </si>
   <si>
@@ -758,6 +1253,15 @@
     <t>Trascr_009</t>
   </si>
   <si>
+    <t>1341</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza di adozione di minore emessa dal Tribunale dei minori</t>
+  </si>
+  <si>
+    <t>Trascr_013</t>
+  </si>
+  <si>
     <t>1343</t>
   </si>
   <si>
@@ -794,6 +1298,15 @@
     <t>Trascr_019</t>
   </si>
   <si>
+    <t>1353</t>
+  </si>
+  <si>
+    <t>Trascrizione di provvedimento straniero adozione di minorenne o maggiorenne in casi particolari richiesta da un privato</t>
+  </si>
+  <si>
+    <t>Trascr_020</t>
+  </si>
+  <si>
     <t>1354</t>
   </si>
   <si>
@@ -812,6 +1325,24 @@
     <t>Trascr_004</t>
   </si>
   <si>
+    <t>1366</t>
+  </si>
+  <si>
+    <t>Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di parte</t>
+  </si>
+  <si>
+    <t>Trascr_023</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>Scelta del cognome del figlio di ignoti maggiorenne a seguito del riconoscimento da parte di uno o di entrambi i genitori  su istanza di ufficio</t>
+  </si>
+  <si>
+    <t>Trascr_026</t>
+  </si>
+  <si>
     <t>1399</t>
   </si>
   <si>
@@ -1146,6 +1677,15 @@
   </si>
   <si>
     <t>Sep_Div_005</t>
+  </si>
+  <si>
+    <t>346000</t>
+  </si>
+  <si>
+    <t>Trascrizione delle sentenze di deliberazione, da parte della Corte d’Appello, delle sentenze di nullità del matrimonio pronunciate dai Tribunali Ecclesiastici</t>
+  </si>
+  <si>
+    <t>Sep_Div_006</t>
   </si>
   <si>
     <t>349999</t>
@@ -1361,6 +1901,18 @@
     <t>Citt_005</t>
   </si>
   <si>
+    <t>51102</t>
+  </si>
+  <si>
+    <t>Straniero o dall'apolide, del quale il padre o la madre o uno degli
+ascendenti in linea retta di secondo grado sono stati cittadini per
+nascita, il quale, al raggiungimento della maggiore età, risiede
+legalmente da almeno due anni nel territorio della Repubblica</t>
+  </si>
+  <si>
+    <t>Citt_009</t>
+  </si>
+  <si>
     <t>51103</t>
   </si>
   <si>
@@ -1418,6 +1970,44 @@
     <t>Citt_007</t>
   </si>
   <si>
+    <t>51201</t>
+  </si>
+  <si>
+    <t>Rinuncia del maggiorenne che aveva acquistato la cittadinanza per convivenza con il genitore art. 14</t>
+  </si>
+  <si>
+    <t>Citt_021</t>
+  </si>
+  <si>
+    <t>51202</t>
+  </si>
+  <si>
+    <t>Revoca dell'adozione per il fatto dell'adottante, rinuncia espressa cittadinanza entro un anno dalla revoca adozione</t>
+  </si>
+  <si>
+    <t>Citt_024</t>
+  </si>
+  <si>
+    <t>51301</t>
+  </si>
+  <si>
+    <t>Dichiarazione fatta da chi, avendo perduto la cittadinanza italiana,intende riacquistarla mediante prestazione del servizio militare per lo stato italiano</t>
+  </si>
+  <si>
+    <t>Citt_028</t>
+  </si>
+  <si>
+    <t>51302</t>
+  </si>
+  <si>
+    <t>Dichiarazione fatta da chi, avendo perduto la cittadinanza italiana,
+intende riacquistarla per l'assunzione di pubblico impiego alle
+dipendenze dello Stato italiano</t>
+  </si>
+  <si>
+    <t>Citt_030</t>
+  </si>
+  <si>
     <t>51303</t>
   </si>
   <si>
@@ -1436,6 +2026,27 @@
     <t>Citt_036</t>
   </si>
   <si>
+    <t>51305</t>
+  </si>
+  <si>
+    <t>Rinuncia al riacquisto della cittadinaza entro un anno dalla richiesta di residenza</t>
+  </si>
+  <si>
+    <t>Citt_038</t>
+  </si>
+  <si>
+    <t>51306</t>
+  </si>
+  <si>
+    <t>Donna che, avendo perduto, anteriormente al 1°
+gennaio 1948, la cittadinanza italiana per effetto di matrimonio con uno
+straniero o di mutamento di cittadinanza da parte del marito, intende
+riacquistarla</t>
+  </si>
+  <si>
+    <t>Citt_040</t>
+  </si>
+  <si>
     <t>51999</t>
   </si>
   <si>
@@ -1460,6 +2071,30 @@
     <t>Citt_006</t>
   </si>
   <si>
+    <t>52114</t>
+  </si>
+  <si>
+    <t>Citt_008</t>
+  </si>
+  <si>
+    <t>52121</t>
+  </si>
+  <si>
+    <t>Citt_010</t>
+  </si>
+  <si>
+    <t>52122</t>
+  </si>
+  <si>
+    <t>Citt_012</t>
+  </si>
+  <si>
+    <t>52123</t>
+  </si>
+  <si>
+    <t>Citt_014</t>
+  </si>
+  <si>
     <t>52141</t>
   </si>
   <si>
@@ -1485,6 +2120,79 @@
   </si>
   <si>
     <t>Citt_004</t>
+  </si>
+  <si>
+    <t>52211</t>
+  </si>
+  <si>
+    <t>Reso servigi ad uno Stato estero</t>
+  </si>
+  <si>
+    <t>Citt_026</t>
+  </si>
+  <si>
+    <t>52221</t>
+  </si>
+  <si>
+    <t>Citt_022</t>
+  </si>
+  <si>
+    <t>52241</t>
+  </si>
+  <si>
+    <t>Disconoscimento da parte del genitore italiano</t>
+  </si>
+  <si>
+    <t>Citt_019</t>
+  </si>
+  <si>
+    <t>52242</t>
+  </si>
+  <si>
+    <t>Perdita per naturalizzazione straniera</t>
+  </si>
+  <si>
+    <t>Citt_027</t>
+  </si>
+  <si>
+    <t>52251</t>
+  </si>
+  <si>
+    <t>Revoca: cittadinanza italiana acquisita ai sensi degli articoli  4,
+comma 2, 5 e 9, e' revocata in caso  di  condanna  definitiva  per  i
+reati previsti dall'articolo 407, comma 2, lettera  a),  n.  4),  del
+codice di procedura penale, nonche' per i reati di cui agli  articoli
+270-ter  e  270-quinquies.2,  del  codice  penale</t>
+  </si>
+  <si>
+    <t>Citt_018</t>
+  </si>
+  <si>
+    <t>52261</t>
+  </si>
+  <si>
+    <t>Rinuncia espressa</t>
+  </si>
+  <si>
+    <t>Citt_020</t>
+  </si>
+  <si>
+    <t>52271</t>
+  </si>
+  <si>
+    <t>Revoca dell'adozione per il fatto dell'adottato</t>
+  </si>
+  <si>
+    <t>Citt_023</t>
+  </si>
+  <si>
+    <t>52311</t>
+  </si>
+  <si>
+    <t>Esito dell'accertamento per chi avendo perduto la cittadinanza intende riacquistarla mediante prestazione del servizio militare per lo stato italiano</t>
+  </si>
+  <si>
+    <t>Citt_029</t>
   </si>
   <si>
     <t>52999</t>
@@ -1576,14 +2284,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="11.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="173.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="187.6171875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.6640625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.9609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="6.06640625" customWidth="true" bestFit="true"/>
@@ -1841,120 +2549,120 @@
         <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
@@ -1965,19 +2673,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24">
@@ -1994,7 +2702,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
@@ -2011,7 +2719,7 @@
         <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
@@ -2028,7 +2736,7 @@
         <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27">
@@ -2045,7 +2753,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28">
@@ -2062,7 +2770,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29">
@@ -2079,7 +2787,7 @@
         <v>8</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
@@ -2096,7 +2804,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31">
@@ -2113,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32">
@@ -2130,7 +2838,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -2147,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -2164,7 +2872,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -2181,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -2198,7 +2906,7 @@
         <v>8</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37">
@@ -2215,7 +2923,7 @@
         <v>8</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -2232,7 +2940,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -2249,7 +2957,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40">
@@ -2266,7 +2974,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41">
@@ -2283,7 +2991,7 @@
         <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
@@ -2300,7 +3008,7 @@
         <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -2317,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -2334,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -2351,7 +3059,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -2368,7 +3076,7 @@
         <v>8</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2385,7 +3093,7 @@
         <v>8</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2402,7 +3110,7 @@
         <v>8</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49">
@@ -2470,7 +3178,7 @@
         <v>8</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -2487,7 +3195,7 @@
         <v>8</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -2504,7 +3212,7 @@
         <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -2521,7 +3229,7 @@
         <v>8</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56">
@@ -2538,7 +3246,7 @@
         <v>8</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -2552,1914 +3260,3257 @@
         <v>175</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="D58" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>293</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>300</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>300</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>326</v>
-      </c>
       <c r="D107" s="2" t="s">
-        <v>176</v>
+        <v>8</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="D108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="D109" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>300</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>273</v>
+        <v>390</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>279</v>
+        <v>396</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>176</v>
+        <v>332</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>8</v>
+        <v>337</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>176</v>
+        <v>337</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>270</v>
+        <v>444</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>181</v>
+        <v>332</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>273</v>
+        <v>447</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>276</v>
+        <v>450</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>279</v>
+        <v>453</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>181</v>
+        <v>337</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>177</v>
+        <v>470</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>177</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>177</v>
+        <v>477</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>177</v>
+        <v>477</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>177</v>
+        <v>477</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>177</v>
+        <v>477</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>484</v>
+        <v>447</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>487</v>
+        <v>450</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>490</v>
+        <v>453</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>270</v>
+        <v>456</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>273</v>
+        <v>505</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>177</v>
+        <v>8</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>177</v>
+        <v>333</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>276</v>
+        <v>508</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>177</v>
+        <v>477</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>279</v>
+        <v>511</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>177</v>
+        <v>337</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>177</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="858">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -239,7 +239,7 @@
     <t>11121100</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC di filiazione di bimbo nato morto</t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre all'USC di filiazione di bimbo nato morto</t>
   </si>
   <si>
     <t>Dic_Nasc_012</t>
@@ -248,7 +248,7 @@
     <t>11121200</t>
   </si>
   <si>
-    <t>Dichiarazione tardiva di filiazione nel matrimonio resa all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+    <t>Dichiarazione tardiva di filiazione nel matrimonio resa dal padre all'USC di bimbo nato vivo ma morto prima della denuncia di nascita</t>
   </si>
   <si>
     <t>Dic_Nasc_013</t>
@@ -587,6 +587,15 @@
     <t>Dic_Nasc_101</t>
   </si>
   <si>
+    <t>11217000</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni – resa dal procuratore della madre - Filiazione fuori dal matrimonio con consenso del padre ad essere nominato</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_116</t>
+  </si>
+  <si>
     <t>11217100</t>
   </si>
   <si>
@@ -596,6 +605,15 @@
     <t>Dic_Nasc_112</t>
   </si>
   <si>
+    <t>11217200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC dal procuratore della madre di bimbo nato vivo ma morto prima della denuncia di nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_113</t>
+  </si>
+  <si>
     <t>11221001</t>
   </si>
   <si>
@@ -911,6 +929,15 @@
     <t>Dic_Nasc_108</t>
   </si>
   <si>
+    <t>11417020</t>
+  </si>
+  <si>
+    <t>Dichiarazione di filiazione fuori del matrimonio, nei termini di legge, resa dal procuratore della madre, di bimbo riconosciuto da parte della madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_109</t>
+  </si>
+  <si>
     <t>11421010</t>
   </si>
   <si>
@@ -974,6 +1001,15 @@
     <t>Dic_Nasc_074</t>
   </si>
   <si>
+    <t>11425020</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori del matrimonio, resa dall'ostetrica o sanitario o altra persona che ha assistito al parto di bimbo riconosciuto dalla madre prima della nascita</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_075</t>
+  </si>
+  <si>
     <t>11426020</t>
   </si>
   <si>
@@ -1001,6 +1037,42 @@
     <t>Dic_Nasc_054</t>
   </si>
   <si>
+    <t>11315100</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei temini di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_055</t>
+  </si>
+  <si>
+    <t>11315200</t>
+  </si>
+  <si>
+    <t>Dichiarazione nei termini di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo ma morto prima della dichiarazione</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_056</t>
+  </si>
+  <si>
+    <t>11325100</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato morto</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_058</t>
+  </si>
+  <si>
+    <t>11325200</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo ma morto prima della dichiarazione</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_059</t>
+  </si>
+  <si>
     <t>11999999</t>
   </si>
   <si>
@@ -1226,6 +1298,15 @@
     <t>Trascr_006</t>
   </si>
   <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>Trascrizione dichiarazione di nascita avvenuta durante un viaggio in mare, aereo, treno</t>
+  </si>
+  <si>
+    <t>Trascr_007</t>
+  </si>
+  <si>
     <t>1314</t>
   </si>
   <si>
@@ -1235,6 +1316,15 @@
     <t>Trascr_022</t>
   </si>
   <si>
+    <t>1321</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza straniera di dichiarazione giudiziale di maternità richiesta dall’interessato</t>
+  </si>
+  <si>
+    <t>Trascr_008</t>
+  </si>
+  <si>
     <t>1322</t>
   </si>
   <si>
@@ -1253,6 +1343,33 @@
     <t>Trascr_009</t>
   </si>
   <si>
+    <t>1324</t>
+  </si>
+  <si>
+    <t>Trascrizione richiesta dall’interessato della sentenza straniera di disconoscimento di paternità</t>
+  </si>
+  <si>
+    <t>Trascr_010</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza straniera di disconoscimento di paternità su richiesta dell’autorità diplomatica o consolare</t>
+  </si>
+  <si>
+    <t>Trascr_011</t>
+  </si>
+  <si>
+    <t>1331</t>
+  </si>
+  <si>
+    <t>Trascrizione del decreto prefettizio di cambiamento del nome e cognome</t>
+  </si>
+  <si>
+    <t>Trascr_012</t>
+  </si>
+  <si>
     <t>1341</t>
   </si>
   <si>
@@ -1262,6 +1379,15 @@
     <t>Trascr_013</t>
   </si>
   <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza di adozione di minore in casi particolari emessa dal Tribunale dei minori</t>
+  </si>
+  <si>
+    <t>Trascr_014</t>
+  </si>
+  <si>
     <t>1343</t>
   </si>
   <si>
@@ -1280,6 +1406,15 @@
     <t>Trascr_016</t>
   </si>
   <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>Trascrizione della sentenza di revoca della adozione di maggiorenne</t>
+  </si>
+  <si>
+    <t>Trascr_017</t>
+  </si>
+  <si>
     <t>1351</t>
   </si>
   <si>
@@ -1316,6 +1451,42 @@
     <t>Trascr_021</t>
   </si>
   <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>Formazione dell'atto di nascita su autorizzazione tribunale in caso di omessa denuncia</t>
+  </si>
+  <si>
+    <t>Trascr_001</t>
+  </si>
+  <si>
+    <t>1362</t>
+  </si>
+  <si>
+    <t>Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di parte</t>
+  </si>
+  <si>
+    <t>Trascr_002</t>
+  </si>
+  <si>
+    <t>1363</t>
+  </si>
+  <si>
+    <t>Scelta del cognome del figlio maggiorenne il cui genitore ha cambiato o modificato il cognome su istanza di ufficio</t>
+  </si>
+  <si>
+    <t>Trascr_025</t>
+  </si>
+  <si>
+    <t>1364</t>
+  </si>
+  <si>
+    <t>Scelta del cognome del figlio maggiorenne a seguito di accertamento o riconoscimento della paternità successivamente al riconoscimento materno</t>
+  </si>
+  <si>
+    <t>Trascr_003</t>
+  </si>
+  <si>
     <t>1365</t>
   </si>
   <si>
@@ -1484,6 +1655,15 @@
     <t>Morte_009</t>
   </si>
   <si>
+    <t>2223</t>
+  </si>
+  <si>
+    <t>Trascrizioni di sentenze estera di morte presunta o scomparsa o assenza richiesta da privato</t>
+  </si>
+  <si>
+    <t>Morte_010</t>
+  </si>
+  <si>
     <t>2224</t>
   </si>
   <si>
@@ -1535,6 +1715,15 @@
     <t>Matr_001</t>
   </si>
   <si>
+    <t>311121</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Civile nella casa comunale con Riconoscimento di uno o più figli</t>
+  </si>
+  <si>
+    <t>Matr_009</t>
+  </si>
+  <si>
     <t>311211</t>
   </si>
   <si>
@@ -1553,6 +1742,24 @@
     <t>Matr_003</t>
   </si>
   <si>
+    <t>311221</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Civile fuori dalla casa comunale con Riconoscimento di uno o più figli</t>
+  </si>
+  <si>
+    <t>Matr_010</t>
+  </si>
+  <si>
+    <t>311222</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Civile fuori dalla casa comunale in Imminente Pericolo di Vita con Riconoscimento di uno o più figli</t>
+  </si>
+  <si>
+    <t>Matr_011</t>
+  </si>
+  <si>
     <t>312111</t>
   </si>
   <si>
@@ -1562,6 +1769,15 @@
     <t>Matr_004</t>
   </si>
   <si>
+    <t>312121</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Civile con Delega di altro Comune nella casa comunale con Riconoscimento di uno o più figli</t>
+  </si>
+  <si>
+    <t>Matr_012</t>
+  </si>
+  <si>
     <t>312211</t>
   </si>
   <si>
@@ -1571,6 +1787,15 @@
     <t>Matr_005</t>
   </si>
   <si>
+    <t>312221</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Civile con Delega di altro Comune fuori dalla casa comunale con Riconoscimento di uno o più figli</t>
+  </si>
+  <si>
+    <t>Matr_013</t>
+  </si>
+  <si>
     <t>319999</t>
   </si>
   <si>
@@ -1589,6 +1814,15 @@
     <t>Matr_007</t>
   </si>
   <si>
+    <t>321321</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Religioso Cattolico con Riconoscimento di uno o più figli</t>
+  </si>
+  <si>
+    <t>Matr_015</t>
+  </si>
+  <si>
     <t>321411</t>
   </si>
   <si>
@@ -1598,6 +1832,15 @@
     <t>Matr_008</t>
   </si>
   <si>
+    <t>321421</t>
+  </si>
+  <si>
+    <t>Matrimonio con Rito Religioso Acattolico con Riconoscimento di uno o più figli</t>
+  </si>
+  <si>
+    <t>Matr_016</t>
+  </si>
+  <si>
     <t>329999</t>
   </si>
   <si>
@@ -1634,6 +1877,24 @@
     <t>Trascr_Matr_003</t>
   </si>
   <si>
+    <t>334000</t>
+  </si>
+  <si>
+    <t>Trascrizione sentenze di Tribunali stranieri - Richiesta di trascrizione da parte dell'interessato</t>
+  </si>
+  <si>
+    <t>Trascr_Matr_004</t>
+  </si>
+  <si>
+    <t>335003</t>
+  </si>
+  <si>
+    <t>Trascrizione di matrimonio in imminente pericolo di vita durante un viaggio in aereo o nave</t>
+  </si>
+  <si>
+    <t>Trascr_Matr_005</t>
+  </si>
+  <si>
     <t>339999</t>
   </si>
   <si>
@@ -1670,6 +1931,15 @@
     <t>Sep_Div_003</t>
   </si>
   <si>
+    <t>344000</t>
+  </si>
+  <si>
+    <t>Accordo di modifica delle condizioni di separazione o divorzio</t>
+  </si>
+  <si>
+    <t>Sep_Div_004</t>
+  </si>
+  <si>
     <t>345000</t>
   </si>
   <si>
@@ -1688,6 +1958,15 @@
     <t>Sep_Div_006</t>
   </si>
   <si>
+    <t>347000</t>
+  </si>
+  <si>
+    <t>Trascrizione provvedimenti esteri in materia matrimoniale.</t>
+  </si>
+  <si>
+    <t>Sep_Div_007</t>
+  </si>
+  <si>
     <t>349999</t>
   </si>
   <si>
@@ -1800,6 +2079,24 @@
   </si>
   <si>
     <t>Trascr_UnCiv_002</t>
+  </si>
+  <si>
+    <t>433000</t>
+  </si>
+  <si>
+    <t>Trascrizione di Unione Civile di sentenze di Tribunali stranieri - Richiesta di trascrizione da parte dell'interessato</t>
+  </si>
+  <si>
+    <t>Trascr_UnCiv_003</t>
+  </si>
+  <si>
+    <t>434000</t>
+  </si>
+  <si>
+    <t>Trascrizione di Unione Civile di sentenze di Tribunali stranieri - Richiesta di trascrizione da parte del Consolato/Ambasciata</t>
+  </si>
+  <si>
+    <t>Trascr_UnCiv_004</t>
   </si>
   <si>
     <t>439999</t>
@@ -2122,6 +2419,24 @@
     <t>Citt_004</t>
   </si>
   <si>
+    <t>52153</t>
+  </si>
+  <si>
+    <t>Trascrizione del decreto per matrimonio-unione civile-naturalizzazione-presentazione cittadino</t>
+  </si>
+  <si>
+    <t>Citt_045</t>
+  </si>
+  <si>
+    <t>52154</t>
+  </si>
+  <si>
+    <t>Trascrizione del decreto per matrimonio-unione civile-naturalizzazione-da consolato</t>
+  </si>
+  <si>
+    <t>Citt_046</t>
+  </si>
+  <si>
     <t>52211</t>
   </si>
   <si>
@@ -2135,6 +2450,12 @@
   </si>
   <si>
     <t>Citt_022</t>
+  </si>
+  <si>
+    <t>52222</t>
+  </si>
+  <si>
+    <t>Citt_025</t>
   </si>
   <si>
     <t>52241</t>
@@ -2193,6 +2514,65 @@
   </si>
   <si>
     <t>Citt_029</t>
+  </si>
+  <si>
+    <t>52312</t>
+  </si>
+  <si>
+    <t>Esito dell'accertamento per chi, avendo perduto la cittadinanza italiana,
+intende riacquistarla per l'assunzione di pubblico impiego alle
+dipendenze dello Stato italiano</t>
+  </si>
+  <si>
+    <t>Citt_031</t>
+  </si>
+  <si>
+    <t>52321</t>
+  </si>
+  <si>
+    <t>Riacquisto per residenza in Italia esito dell'accertamento</t>
+  </si>
+  <si>
+    <t>Citt_034</t>
+  </si>
+  <si>
+    <t>52322</t>
+  </si>
+  <si>
+    <t>Citt_037</t>
+  </si>
+  <si>
+    <t>52323</t>
+  </si>
+  <si>
+    <t>Rinuncia al riacquisto della cittadinanza entro un anno dalla richiesta di residenza</t>
+  </si>
+  <si>
+    <t>Citt_039</t>
+  </si>
+  <si>
+    <t>52324</t>
+  </si>
+  <si>
+    <t>Citt_041</t>
+  </si>
+  <si>
+    <t>52331</t>
+  </si>
+  <si>
+    <t>Riacquisto per residenza in Italia, dichiarazione resa in Consolato italiano</t>
+  </si>
+  <si>
+    <t>Citt_032</t>
+  </si>
+  <si>
+    <t>52341</t>
+  </si>
+  <si>
+    <t>Riacquisto per un anno di residenza in Italia</t>
+  </si>
+  <si>
+    <t>Citt_035</t>
   </si>
   <si>
     <t>52999</t>
@@ -2284,7 +2664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F291"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3382,7 +3762,7 @@
         <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -3399,7 +3779,7 @@
         <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -3790,7 +4170,7 @@
         <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
@@ -3807,7 +4187,7 @@
         <v>8</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90">
@@ -3977,7 +4357,7 @@
         <v>8</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100">
@@ -3994,7 +4374,7 @@
         <v>8</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101">
@@ -4011,7 +4391,7 @@
         <v>8</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102">
@@ -4130,7 +4510,7 @@
         <v>8</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109">
@@ -4144,24 +4524,24 @@
         <v>331</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>332</v>
+        <v>8</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="D110" s="2" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>73</v>
@@ -4169,16 +4549,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>73</v>
@@ -4186,67 +4566,67 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>73</v>
@@ -4254,16 +4634,16 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>73</v>
@@ -4271,33 +4651,33 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>337</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>73</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="D118" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>73</v>
@@ -4314,7 +4694,7 @@
         <v>364</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>73</v>
@@ -4331,7 +4711,7 @@
         <v>367</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>73</v>
@@ -4348,7 +4728,7 @@
         <v>370</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>73</v>
@@ -4365,7 +4745,7 @@
         <v>373</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>73</v>
@@ -4382,7 +4762,7 @@
         <v>376</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>73</v>
@@ -4399,7 +4779,7 @@
         <v>379</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>73</v>
@@ -4416,7 +4796,7 @@
         <v>382</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>73</v>
@@ -4433,7 +4813,7 @@
         <v>385</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>73</v>
@@ -4450,7 +4830,7 @@
         <v>388</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>73</v>
@@ -4467,7 +4847,7 @@
         <v>391</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>73</v>
@@ -4484,7 +4864,7 @@
         <v>394</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>73</v>
@@ -4501,10 +4881,10 @@
         <v>397</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="131">
@@ -4518,7 +4898,7 @@
         <v>400</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>73</v>
@@ -4535,7 +4915,7 @@
         <v>403</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>73</v>
@@ -4552,7 +4932,7 @@
         <v>406</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>73</v>
@@ -4569,7 +4949,7 @@
         <v>409</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>73</v>
@@ -4586,7 +4966,7 @@
         <v>412</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>73</v>
@@ -4603,7 +4983,7 @@
         <v>415</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>73</v>
@@ -4620,7 +5000,7 @@
         <v>418</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>73</v>
@@ -4637,10 +5017,10 @@
         <v>421</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>73</v>
+        <v>357</v>
       </c>
     </row>
     <row r="139">
@@ -4654,7 +5034,7 @@
         <v>424</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>73</v>
@@ -4671,7 +5051,7 @@
         <v>427</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>73</v>
@@ -4688,7 +5068,7 @@
         <v>430</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>73</v>
@@ -4705,7 +5085,7 @@
         <v>433</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>73</v>
@@ -4722,7 +5102,7 @@
         <v>436</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>73</v>
@@ -4739,7 +5119,7 @@
         <v>439</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>73</v>
@@ -4756,7 +5136,7 @@
         <v>442</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>73</v>
@@ -4773,10 +5153,10 @@
         <v>445</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="147">
@@ -4790,7 +5170,7 @@
         <v>448</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>73</v>
@@ -4807,7 +5187,7 @@
         <v>451</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>73</v>
@@ -4824,7 +5204,7 @@
         <v>454</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>73</v>
@@ -4841,7 +5221,7 @@
         <v>457</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>73</v>
@@ -4858,10 +5238,10 @@
         <v>460</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>8</v>
+        <v>361</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152">
@@ -4875,7 +5255,7 @@
         <v>463</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>73</v>
@@ -4892,7 +5272,7 @@
         <v>466</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>73</v>
@@ -4909,180 +5289,180 @@
         <v>469</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>470</v>
+        <v>73</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="D155" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="D156" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>477</v>
+        <v>73</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="D157" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>477</v>
+        <v>73</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="D158" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>477</v>
+        <v>73</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="D159" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>477</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>489</v>
-      </c>
       <c r="D160" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>477</v>
+        <v>73</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C161" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="D161" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>477</v>
+        <v>73</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="D162" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>497</v>
-      </c>
       <c r="D163" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>499</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="165">
@@ -5090,373 +5470,373 @@
         <v>500</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>453</v>
+        <v>501</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>8</v>
+        <v>361</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>477</v>
+        <v>73</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>477</v>
+        <v>73</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>337</v>
+        <v>8</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>477</v>
+        <v>73</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>333</v>
+        <v>73</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>9</v>
+        <v>527</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>553</v>
+        <v>504</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>556</v>
+        <v>507</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>559</v>
+        <v>510</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>562</v>
+        <v>513</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>563</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>477</v>
+        <v>357</v>
       </c>
     </row>
     <row r="187">
@@ -5464,1053 +5844,1784 @@
         <v>564</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>447</v>
+        <v>565</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>332</v>
+        <v>8</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>450</v>
+        <v>568</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>332</v>
+        <v>8</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>453</v>
+        <v>571</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>456</v>
+        <v>574</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>8</v>
+        <v>361</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>447</v>
+        <v>622</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>450</v>
+        <v>625</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>453</v>
+        <v>628</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>623</v>
+        <v>630</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>456</v>
+        <v>631</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>333</v>
+        <v>534</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>650</v>
+        <v>504</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>653</v>
+        <v>507</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>656</v>
+        <v>510</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>659</v>
+        <v>513</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>333</v>
+        <v>8</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>626</v>
+        <v>684</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>650</v>
+        <v>711</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>707</v>
+        <v>504</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>710</v>
+        <v>507</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>713</v>
+        <v>510</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>716</v>
+        <v>513</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>447</v>
+        <v>731</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>450</v>
+        <v>734</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>453</v>
+        <v>737</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>333</v>
+        <v>357</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>456</v>
+        <v>740</v>
       </c>
       <c r="C248" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>333</v>
+      <c r="C264" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="858">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="857">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1418,7 +1418,7 @@
     <t>1351</t>
   </si>
   <si>
-    <t>Trascrizione provvedimento straniero di adozione richiesta da un privato</t>
+    <t>Trascrizione provvedimento straniero di adozione</t>
   </si>
   <si>
     <t>Trascr_018</t>
@@ -1595,7 +1595,7 @@
     <t>Morte_004</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>C</t>
   </si>
   <si>
     <t>2199</t>
@@ -1614,9 +1614,6 @@
   </si>
   <si>
     <t>Morte_005</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>2212</t>
@@ -5649,120 +5646,120 @@
         <v>361</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>537</v>
-      </c>
       <c r="D176" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>540</v>
-      </c>
       <c r="D177" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="D178" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="D179" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C180" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="D180" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="D181" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>356</v>
@@ -5773,13 +5770,13 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>504</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>356</v>
@@ -5790,13 +5787,13 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>507</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>356</v>
@@ -5807,13 +5804,13 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>356</v>
@@ -5824,13 +5821,13 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>513</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>356</v>
@@ -5841,13 +5838,13 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>8</v>
@@ -5858,13 +5855,13 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>8</v>
@@ -5875,149 +5872,149 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>572</v>
-      </c>
       <c r="D189" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>575</v>
-      </c>
       <c r="D190" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>578</v>
-      </c>
       <c r="D191" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="D192" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="D193" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>587</v>
-      </c>
       <c r="D194" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="C195" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="D195" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="D196" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>356</v>
@@ -6028,13 +6025,13 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>361</v>
@@ -6045,13 +6042,13 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>602</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>361</v>
@@ -6062,13 +6059,13 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>361</v>
@@ -6079,13 +6076,13 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="C201" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>361</v>
@@ -6096,13 +6093,13 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>356</v>
@@ -6113,98 +6110,98 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>614</v>
-      </c>
       <c r="D203" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C204" s="2" t="s">
-        <v>617</v>
-      </c>
       <c r="D204" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>620</v>
-      </c>
       <c r="D205" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>623</v>
-      </c>
       <c r="D206" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="C207" s="2" t="s">
-        <v>626</v>
-      </c>
       <c r="D207" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>356</v>
@@ -6215,132 +6212,132 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C209" s="2" t="s">
-        <v>632</v>
-      </c>
       <c r="D209" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>635</v>
-      </c>
       <c r="D210" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="C211" s="2" t="s">
-        <v>638</v>
-      </c>
       <c r="D211" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="C212" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="C212" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="D212" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C213" s="2" t="s">
-        <v>644</v>
-      </c>
       <c r="D213" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C214" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="D214" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="C215" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="D215" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="C216" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>653</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>356</v>
@@ -6351,30 +6348,30 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="D217" s="2" t="s">
         <v>361</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>504</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>356</v>
@@ -6385,13 +6382,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>507</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>356</v>
@@ -6402,13 +6399,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>356</v>
@@ -6419,13 +6416,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>513</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>356</v>
@@ -6436,13 +6433,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="C222" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>8</v>
@@ -6453,13 +6450,13 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>361</v>
@@ -6470,13 +6467,13 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>673</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>361</v>
@@ -6487,13 +6484,13 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>361</v>
@@ -6504,13 +6501,13 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="C226" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>361</v>
@@ -6521,13 +6518,13 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>356</v>
@@ -6538,13 +6535,13 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>361</v>
@@ -6555,13 +6552,13 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="C229" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>361</v>
@@ -6572,13 +6569,13 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="C230" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>361</v>
@@ -6589,13 +6586,13 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>361</v>
@@ -6606,13 +6603,13 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>696</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>697</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>356</v>
@@ -6623,13 +6620,13 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="C233" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>361</v>
@@ -6640,13 +6637,13 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="C234" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>361</v>
@@ -6657,13 +6654,13 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>361</v>
@@ -6674,13 +6671,13 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>361</v>
@@ -6691,13 +6688,13 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>361</v>
@@ -6708,13 +6705,13 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>356</v>
@@ -6725,13 +6722,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>504</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>361</v>
@@ -6742,13 +6739,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>507</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>361</v>
@@ -6759,13 +6756,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>361</v>
@@ -6776,13 +6773,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>513</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>361</v>
@@ -6793,13 +6790,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>357</v>
@@ -6810,13 +6807,13 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>728</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>729</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>357</v>
@@ -6827,13 +6824,13 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>357</v>
@@ -6844,13 +6841,13 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>357</v>
@@ -6861,13 +6858,13 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>357</v>
@@ -6878,13 +6875,13 @@
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>357</v>
@@ -6895,13 +6892,13 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="B249" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>357</v>
@@ -6912,13 +6909,13 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B250" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>357</v>
@@ -6929,13 +6926,13 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>357</v>
@@ -6946,13 +6943,13 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>357</v>
@@ -6963,13 +6960,13 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>357</v>
@@ -6980,13 +6977,13 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>357</v>
@@ -6997,13 +6994,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>357</v>
@@ -7014,13 +7011,13 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>357</v>
@@ -7031,13 +7028,13 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="C257" s="2" t="s">
         <v>767</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>768</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>357</v>
@@ -7048,13 +7045,13 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>357</v>
@@ -7065,13 +7062,13 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="C259" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>357</v>
@@ -7082,13 +7079,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="C260" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>357</v>
@@ -7099,13 +7096,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>778</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>779</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>357</v>
@@ -7116,13 +7113,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C262" s="2" t="s">
         <v>780</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>781</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>357</v>
@@ -7133,13 +7130,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C263" s="2" t="s">
         <v>782</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>783</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>357</v>
@@ -7150,13 +7147,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>357</v>
@@ -7167,13 +7164,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>357</v>
@@ -7184,13 +7181,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>789</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>790</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>357</v>
@@ -7201,13 +7198,13 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>793</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>357</v>
@@ -7218,13 +7215,13 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>357</v>
@@ -7235,13 +7232,13 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="C269" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>357</v>
@@ -7252,13 +7249,13 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="C270" s="2" t="s">
         <v>801</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>802</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>357</v>
@@ -7269,13 +7266,13 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="C271" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>357</v>
@@ -7286,13 +7283,13 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>807</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>357</v>
@@ -7303,13 +7300,13 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>809</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>357</v>
@@ -7320,13 +7317,13 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="C274" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>357</v>
@@ -7337,13 +7334,13 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="C275" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>357</v>
@@ -7354,13 +7351,13 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="C276" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>357</v>
@@ -7371,13 +7368,13 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="C277" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>357</v>
@@ -7388,13 +7385,13 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="C278" s="2" t="s">
         <v>823</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>824</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>357</v>
@@ -7405,13 +7402,13 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="C279" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>357</v>
@@ -7422,13 +7419,13 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="C280" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>357</v>
@@ -7439,13 +7436,13 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="C281" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>357</v>
@@ -7456,13 +7453,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>357</v>
@@ -7473,13 +7470,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="C283" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>357</v>
@@ -7490,13 +7487,13 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C284" s="2" t="s">
         <v>839</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>840</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>357</v>
@@ -7507,13 +7504,13 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="C285" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>357</v>
@@ -7524,13 +7521,13 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="C286" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>357</v>
@@ -7541,13 +7538,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="C287" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>849</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>357</v>
@@ -7558,13 +7555,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>504</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>357</v>
@@ -7575,13 +7572,13 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>507</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>357</v>
@@ -7592,13 +7589,13 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>357</v>
@@ -7609,13 +7606,13 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>513</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>357</v>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -1922,7 +1922,7 @@
     <t>343000</t>
   </si>
   <si>
-    <t>Conferma o mancata conferma di accordo di separazione o divorzio</t>
+    <t>Conferma di accordo di separazione o divorzio</t>
   </si>
   <si>
     <t>Sep_Div_003</t>
@@ -3402,7 +3402,7 @@
         <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="851">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1811,15 +1811,6 @@
     <t>Matr_007</t>
   </si>
   <si>
-    <t>321321</t>
-  </si>
-  <si>
-    <t>Matrimonio con Rito Religioso Cattolico con Riconoscimento di uno o più figli</t>
-  </si>
-  <si>
-    <t>Matr_015</t>
-  </si>
-  <si>
     <t>321411</t>
   </si>
   <si>
@@ -1827,15 +1818,6 @@
   </si>
   <si>
     <t>Matr_008</t>
-  </si>
-  <si>
-    <t>321421</t>
-  </si>
-  <si>
-    <t>Matrimonio con Rito Religioso Acattolico con Riconoscimento di uno o più figli</t>
-  </si>
-  <si>
-    <t>Matr_016</t>
   </si>
   <si>
     <t>329999</t>
@@ -2661,7 +2643,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F291"/>
+  <dimension ref="A1:F289"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6068,10 +6050,10 @@
         <v>604</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>9</v>
+        <v>357</v>
       </c>
     </row>
     <row r="201">
@@ -6088,7 +6070,7 @@
         <v>361</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>9</v>
+        <v>527</v>
       </c>
     </row>
     <row r="202">
@@ -6102,10 +6084,10 @@
         <v>610</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>357</v>
+        <v>527</v>
       </c>
     </row>
     <row r="203">
@@ -6170,10 +6152,10 @@
         <v>622</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>527</v>
+        <v>357</v>
       </c>
     </row>
     <row r="207">
@@ -6204,10 +6186,10 @@
         <v>628</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>357</v>
+        <v>527</v>
       </c>
     </row>
     <row r="209">
@@ -6306,10 +6288,10 @@
         <v>646</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>527</v>
+        <v>357</v>
       </c>
     </row>
     <row r="215">
@@ -6334,10 +6316,10 @@
         <v>650</v>
       </c>
       <c r="B216" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>356</v>
@@ -6348,30 +6330,30 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="D217" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>527</v>
+        <v>357</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>356</v>
@@ -6382,13 +6364,13 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>356</v>
@@ -6399,16 +6381,16 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B220" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>661</v>
-      </c>
       <c r="D220" s="2" t="s">
-        <v>356</v>
+        <v>8</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>357</v>
@@ -6416,16 +6398,16 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>663</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>357</v>
@@ -6442,7 +6424,7 @@
         <v>666</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>8</v>
+        <v>361</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>357</v>
@@ -6493,7 +6475,7 @@
         <v>675</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>357</v>
@@ -6527,7 +6509,7 @@
         <v>681</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>357</v>
@@ -6578,7 +6560,7 @@
         <v>690</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>357</v>
@@ -6612,7 +6594,7 @@
         <v>696</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>357</v>
@@ -6680,7 +6662,7 @@
         <v>708</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>357</v>
@@ -6691,10 +6673,10 @@
         <v>709</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>361</v>
@@ -6705,16 +6687,16 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>714</v>
-      </c>
       <c r="D238" s="2" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>357</v>
@@ -6722,13 +6704,13 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>361</v>
@@ -6739,13 +6721,13 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>361</v>
@@ -6756,16 +6738,16 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>720</v>
-      </c>
       <c r="D241" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>357</v>
@@ -6773,16 +6755,16 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>722</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>357</v>
@@ -7065,10 +7047,10 @@
         <v>771</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>357</v>
@@ -7079,13 +7061,13 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>357</v>
@@ -7096,13 +7078,13 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>357</v>
@@ -7113,13 +7095,13 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>357</v>
@@ -7130,13 +7112,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>727</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>357</v>
@@ -7147,13 +7129,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>357</v>
@@ -7164,10 +7146,10 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>785</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>733</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>786</v>
@@ -7252,10 +7234,10 @@
         <v>799</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>357</v>
@@ -7266,13 +7248,13 @@
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>357</v>
@@ -7283,13 +7265,13 @@
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>357</v>
@@ -7300,10 +7282,10 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>751</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>808</v>
@@ -7422,10 +7404,10 @@
         <v>827</v>
       </c>
       <c r="B280" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C280" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>829</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>357</v>
@@ -7436,13 +7418,13 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="B281" s="2" t="s">
+      <c r="C281" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>357</v>
@@ -7453,13 +7435,13 @@
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>763</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>357</v>
@@ -7470,13 +7452,13 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="C283" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>837</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>357</v>
@@ -7487,10 +7469,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>839</v>
@@ -7524,10 +7506,10 @@
         <v>843</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C286" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>357</v>
@@ -7538,13 +7520,13 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>357</v>
@@ -7555,13 +7537,13 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>357</v>
@@ -7572,52 +7554,18 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>357</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="D290" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E290" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="D291" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E291" s="2" t="s">
         <v>357</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="860">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -416,6 +416,15 @@
     <t>Dic_Nasc_111</t>
   </si>
   <si>
+    <t>11211001</t>
+  </si>
+  <si>
+    <t>Dichiarazione entro i 10 giorni - resa dal padre senza il consenso della madre – filiazione fuori dal matrimonio</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_019</t>
+  </si>
+  <si>
     <t>11211004</t>
   </si>
   <si>
@@ -1055,6 +1064,15 @@
     <t>Dic_Nasc_056</t>
   </si>
   <si>
+    <t>11325000</t>
+  </si>
+  <si>
+    <t>Dichiarazione tardiva di filiazione fuori dal matrimonio resa all'USC da ostetrica o altro sanitario che ha assistito al parto - nato vivo</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_057</t>
+  </si>
+  <si>
     <t>11325100</t>
   </si>
   <si>
@@ -1908,6 +1926,15 @@
   </si>
   <si>
     <t>Sep_Div_003</t>
+  </si>
+  <si>
+    <t>348000</t>
+  </si>
+  <si>
+    <t>Mancata conferma di separazione o divorzio</t>
+  </si>
+  <si>
+    <t>Sep_Div_008</t>
   </si>
   <si>
     <t>344000</t>
@@ -2643,7 +2670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F289"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3775,7 +3802,7 @@
         <v>8</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -4183,7 +4210,7 @@
         <v>8</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91">
@@ -4387,7 +4414,7 @@
         <v>8</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -4557,7 +4584,7 @@
         <v>8</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113">
@@ -4608,7 +4635,7 @@
         <v>8</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
@@ -4639,24 +4666,24 @@
         <v>355</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>356</v>
+        <v>8</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>360</v>
-      </c>
       <c r="D118" s="2" t="s">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>73</v>
@@ -4664,33 +4691,33 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="E119" s="2" t="s">
-        <v>73</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="D120" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>73</v>
@@ -4707,7 +4734,7 @@
         <v>370</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>73</v>
@@ -4724,7 +4751,7 @@
         <v>373</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>73</v>
@@ -4741,7 +4768,7 @@
         <v>376</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>73</v>
@@ -4758,7 +4785,7 @@
         <v>379</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>73</v>
@@ -4775,7 +4802,7 @@
         <v>382</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>73</v>
@@ -4792,7 +4819,7 @@
         <v>385</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>73</v>
@@ -4809,7 +4836,7 @@
         <v>388</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>73</v>
@@ -4826,7 +4853,7 @@
         <v>391</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>73</v>
@@ -4843,7 +4870,7 @@
         <v>394</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>73</v>
@@ -4860,7 +4887,7 @@
         <v>397</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>73</v>
@@ -4877,7 +4904,7 @@
         <v>400</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>73</v>
@@ -4894,7 +4921,7 @@
         <v>403</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>73</v>
@@ -4911,7 +4938,7 @@
         <v>406</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>73</v>
@@ -4928,7 +4955,7 @@
         <v>409</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>73</v>
@@ -4945,7 +4972,7 @@
         <v>412</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>73</v>
@@ -4962,7 +4989,7 @@
         <v>415</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>73</v>
@@ -4979,7 +5006,7 @@
         <v>418</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>73</v>
@@ -4996,10 +5023,10 @@
         <v>421</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139">
@@ -5013,7 +5040,7 @@
         <v>424</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>73</v>
@@ -5030,10 +5057,10 @@
         <v>427</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>73</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141">
@@ -5047,7 +5074,7 @@
         <v>430</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>73</v>
@@ -5064,7 +5091,7 @@
         <v>433</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>73</v>
@@ -5081,7 +5108,7 @@
         <v>436</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>73</v>
@@ -5098,7 +5125,7 @@
         <v>439</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>73</v>
@@ -5115,7 +5142,7 @@
         <v>442</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>73</v>
@@ -5132,7 +5159,7 @@
         <v>445</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>73</v>
@@ -5149,7 +5176,7 @@
         <v>448</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>73</v>
@@ -5166,7 +5193,7 @@
         <v>451</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>73</v>
@@ -5183,7 +5210,7 @@
         <v>454</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>73</v>
@@ -5200,7 +5227,7 @@
         <v>457</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>73</v>
@@ -5217,7 +5244,7 @@
         <v>460</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>73</v>
@@ -5234,7 +5261,7 @@
         <v>463</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>73</v>
@@ -5251,7 +5278,7 @@
         <v>466</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>73</v>
@@ -5268,7 +5295,7 @@
         <v>469</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>73</v>
@@ -5285,7 +5312,7 @@
         <v>472</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>73</v>
@@ -5302,7 +5329,7 @@
         <v>475</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>73</v>
@@ -5319,7 +5346,7 @@
         <v>478</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>73</v>
@@ -5336,7 +5363,7 @@
         <v>481</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>73</v>
@@ -5353,7 +5380,7 @@
         <v>484</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>73</v>
@@ -5370,7 +5397,7 @@
         <v>487</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E160" s="2" t="s">
         <v>73</v>
@@ -5387,7 +5414,7 @@
         <v>490</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>73</v>
@@ -5404,7 +5431,7 @@
         <v>493</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>73</v>
@@ -5421,7 +5448,7 @@
         <v>496</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>73</v>
@@ -5438,7 +5465,7 @@
         <v>499</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>73</v>
@@ -5455,10 +5482,10 @@
         <v>502</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
     </row>
     <row r="166">
@@ -5472,7 +5499,7 @@
         <v>505</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>73</v>
@@ -5489,10 +5516,10 @@
         <v>508</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>73</v>
+        <v>363</v>
       </c>
     </row>
     <row r="168">
@@ -5506,7 +5533,7 @@
         <v>511</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>73</v>
@@ -5523,7 +5550,7 @@
         <v>514</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>73</v>
@@ -5540,10 +5567,10 @@
         <v>517</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>8</v>
+        <v>367</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
     </row>
     <row r="171">
@@ -5557,7 +5584,7 @@
         <v>520</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>73</v>
@@ -5574,10 +5601,10 @@
         <v>523</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>73</v>
+        <v>363</v>
       </c>
     </row>
     <row r="173">
@@ -5591,44 +5618,44 @@
         <v>526</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>527</v>
+        <v>73</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>530</v>
-      </c>
       <c r="D174" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>357</v>
+        <v>73</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="176">
@@ -5642,10 +5669,10 @@
         <v>536</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>527</v>
+        <v>363</v>
       </c>
     </row>
     <row r="177">
@@ -5659,10 +5686,10 @@
         <v>539</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="178">
@@ -5676,10 +5703,10 @@
         <v>542</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="179">
@@ -5693,10 +5720,10 @@
         <v>545</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180">
@@ -5710,10 +5737,10 @@
         <v>548</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="181">
@@ -5727,10 +5754,10 @@
         <v>551</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182">
@@ -5744,10 +5771,10 @@
         <v>554</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
     </row>
     <row r="183">
@@ -5755,101 +5782,101 @@
         <v>555</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>504</v>
+        <v>556</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>507</v>
+        <v>559</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>510</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>513</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>564</v>
+        <v>516</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>567</v>
+        <v>519</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>568</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="189">
@@ -5863,10 +5890,10 @@
         <v>571</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>527</v>
+        <v>363</v>
       </c>
     </row>
     <row r="190">
@@ -5880,10 +5907,10 @@
         <v>574</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>527</v>
+        <v>363</v>
       </c>
     </row>
     <row r="191">
@@ -5897,10 +5924,10 @@
         <v>577</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="192">
@@ -5914,10 +5941,10 @@
         <v>580</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="193">
@@ -5931,10 +5958,10 @@
         <v>583</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="194">
@@ -5948,10 +5975,10 @@
         <v>586</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="195">
@@ -5965,10 +5992,10 @@
         <v>589</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="196">
@@ -5982,10 +6009,10 @@
         <v>592</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="197">
@@ -5999,10 +6026,10 @@
         <v>595</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
     </row>
     <row r="198">
@@ -6016,10 +6043,10 @@
         <v>598</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>9</v>
+        <v>533</v>
       </c>
     </row>
     <row r="199">
@@ -6033,10 +6060,10 @@
         <v>601</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
     </row>
     <row r="200">
@@ -6050,10 +6077,10 @@
         <v>604</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>357</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201">
@@ -6067,10 +6094,10 @@
         <v>607</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>527</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202">
@@ -6084,10 +6111,10 @@
         <v>610</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>527</v>
+        <v>363</v>
       </c>
     </row>
     <row r="203">
@@ -6101,10 +6128,10 @@
         <v>613</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="204">
@@ -6118,10 +6145,10 @@
         <v>616</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="205">
@@ -6135,10 +6162,10 @@
         <v>619</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="206">
@@ -6152,10 +6179,10 @@
         <v>622</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207">
@@ -6169,10 +6196,10 @@
         <v>625</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="208">
@@ -6186,10 +6213,10 @@
         <v>628</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>527</v>
+        <v>363</v>
       </c>
     </row>
     <row r="209">
@@ -6203,10 +6230,10 @@
         <v>631</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210">
@@ -6220,10 +6247,10 @@
         <v>634</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="211">
@@ -6237,10 +6264,10 @@
         <v>637</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="212">
@@ -6254,10 +6281,10 @@
         <v>640</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="213">
@@ -6271,10 +6298,10 @@
         <v>643</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="214">
@@ -6288,10 +6315,10 @@
         <v>646</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
     </row>
     <row r="215">
@@ -6305,10 +6332,10 @@
         <v>649</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="216">
@@ -6316,118 +6343,118 @@
         <v>650</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>504</v>
+        <v>651</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>507</v>
+        <v>654</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>510</v>
+        <v>657</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>659</v>
+        <v>513</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>662</v>
+        <v>516</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>665</v>
+        <v>519</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>666</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="223">
@@ -6441,10 +6468,10 @@
         <v>669</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>361</v>
+        <v>8</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="224">
@@ -6458,10 +6485,10 @@
         <v>672</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="225">
@@ -6475,10 +6502,10 @@
         <v>675</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="226">
@@ -6492,10 +6519,10 @@
         <v>678</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="227">
@@ -6509,10 +6536,10 @@
         <v>681</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="228">
@@ -6526,10 +6553,10 @@
         <v>684</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="229">
@@ -6543,10 +6570,10 @@
         <v>687</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="230">
@@ -6560,10 +6587,10 @@
         <v>690</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="231">
@@ -6577,10 +6604,10 @@
         <v>693</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="232">
@@ -6594,10 +6621,10 @@
         <v>696</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="233">
@@ -6611,10 +6638,10 @@
         <v>699</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="234">
@@ -6628,10 +6655,10 @@
         <v>702</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="235">
@@ -6645,10 +6672,10 @@
         <v>705</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="236">
@@ -6662,10 +6689,10 @@
         <v>708</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="237">
@@ -6673,118 +6700,118 @@
         <v>709</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>504</v>
+        <v>710</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>507</v>
+        <v>713</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>510</v>
+        <v>716</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>718</v>
+        <v>513</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>721</v>
+        <v>516</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>724</v>
+        <v>519</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>725</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="244">
@@ -6798,10 +6825,10 @@
         <v>728</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="245">
@@ -6815,10 +6842,10 @@
         <v>731</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="246">
@@ -6832,10 +6859,10 @@
         <v>734</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="247">
@@ -6849,10 +6876,10 @@
         <v>737</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="248">
@@ -6866,10 +6893,10 @@
         <v>740</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="249">
@@ -6883,10 +6910,10 @@
         <v>743</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="250">
@@ -6900,10 +6927,10 @@
         <v>746</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="251">
@@ -6917,10 +6944,10 @@
         <v>749</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="252">
@@ -6934,10 +6961,10 @@
         <v>752</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="253">
@@ -6951,10 +6978,10 @@
         <v>755</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="254">
@@ -6968,10 +6995,10 @@
         <v>758</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="255">
@@ -6985,10 +7012,10 @@
         <v>761</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="256">
@@ -7002,10 +7029,10 @@
         <v>764</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257">
@@ -7019,10 +7046,10 @@
         <v>767</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="258">
@@ -7036,10 +7063,10 @@
         <v>770</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="259">
@@ -7047,135 +7074,135 @@
         <v>771</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>718</v>
+        <v>772</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>739</v>
+        <v>775</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>721</v>
+        <v>778</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>782</v>
+        <v>730</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>785</v>
+        <v>733</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>788</v>
+        <v>736</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>789</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="267">
@@ -7189,10 +7216,10 @@
         <v>792</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="268">
@@ -7206,10 +7233,10 @@
         <v>795</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="269">
@@ -7223,10 +7250,10 @@
         <v>798</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="270">
@@ -7234,84 +7261,84 @@
         <v>799</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>742</v>
+        <v>800</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>745</v>
+        <v>803</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>807</v>
+        <v>751</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>810</v>
+        <v>754</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>811</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="275">
@@ -7325,10 +7352,10 @@
         <v>814</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="276">
@@ -7342,10 +7369,10 @@
         <v>817</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="277">
@@ -7359,10 +7386,10 @@
         <v>820</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="278">
@@ -7376,10 +7403,10 @@
         <v>823</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="279">
@@ -7393,10 +7420,10 @@
         <v>826</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="280">
@@ -7404,101 +7431,101 @@
         <v>827</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>757</v>
+        <v>828</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>763</v>
+        <v>834</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>835</v>
+        <v>766</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>841</v>
+        <v>772</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>842</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="286">
@@ -7506,67 +7533,118 @@
         <v>843</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>504</v>
+        <v>844</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>507</v>
+        <v>847</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>510</v>
+        <v>850</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B289" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>357</v>
+      <c r="C290" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="863">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1989,6 +1989,15 @@
   </si>
   <si>
     <t>Matr_Riconc_001</t>
+  </si>
+  <si>
+    <t>359999</t>
+  </si>
+  <si>
+    <t>Caso d'uso di servizio (riconciliazioni)</t>
+  </si>
+  <si>
+    <t>Rico_Matr_999</t>
   </si>
   <si>
     <t>366999</t>
@@ -2670,7 +2679,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F292"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -6394,10 +6403,10 @@
         <v>659</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>510</v>
+        <v>660</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>362</v>
@@ -6408,13 +6417,13 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>362</v>
@@ -6425,13 +6434,13 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>362</v>
@@ -6442,13 +6451,13 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>362</v>
@@ -6459,16 +6468,16 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>668</v>
+        <v>519</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>669</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>8</v>
+        <v>362</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>363</v>
@@ -6485,7 +6494,7 @@
         <v>672</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>367</v>
+        <v>8</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>363</v>
@@ -6553,7 +6562,7 @@
         <v>684</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>363</v>
@@ -6570,7 +6579,7 @@
         <v>687</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>363</v>
@@ -6638,7 +6647,7 @@
         <v>699</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>363</v>
@@ -6655,7 +6664,7 @@
         <v>702</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>363</v>
@@ -6740,7 +6749,7 @@
         <v>717</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>363</v>
@@ -6751,13 +6760,13 @@
         <v>718</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>510</v>
+        <v>719</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>363</v>
@@ -6765,13 +6774,13 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>367</v>
@@ -6782,13 +6791,13 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>367</v>
@@ -6799,13 +6808,13 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>367</v>
@@ -6816,16 +6825,16 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>727</v>
+        <v>519</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>728</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>363</v>
@@ -7125,10 +7134,10 @@
         <v>780</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>727</v>
+        <v>781</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>363</v>
@@ -7139,13 +7148,13 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>748</v>
+        <v>730</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>363</v>
@@ -7156,13 +7165,13 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>363</v>
@@ -7173,13 +7182,13 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>733</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>363</v>
@@ -7190,13 +7199,13 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>736</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>363</v>
@@ -7207,10 +7216,10 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>791</v>
+        <v>739</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>792</v>
@@ -7312,10 +7321,10 @@
         <v>808</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>751</v>
+        <v>809</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>363</v>
@@ -7326,13 +7335,13 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>754</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>363</v>
@@ -7343,10 +7352,10 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>813</v>
+        <v>757</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>814</v>
@@ -7482,10 +7491,10 @@
         <v>836</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>766</v>
+        <v>837</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>363</v>
@@ -7496,10 +7505,10 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>839</v>
+        <v>769</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>840</v>
@@ -7516,10 +7525,10 @@
         <v>841</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>772</v>
+        <v>842</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>363</v>
@@ -7530,10 +7539,10 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>844</v>
+        <v>775</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>845</v>
@@ -7584,10 +7593,10 @@
         <v>852</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>510</v>
+        <v>853</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>363</v>
@@ -7598,13 +7607,13 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>363</v>
@@ -7615,13 +7624,13 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>363</v>
@@ -7632,18 +7641,35 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D292" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E292" s="2" t="s">
+      <c r="C293" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>363</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="598">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1040,6 +1040,18 @@
     <t>Dic_Nasc_119</t>
   </si>
   <si>
+    <t>14750000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_120</t>
+  </si>
+  <si>
+    <t>14850000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_998_3</t>
+  </si>
+  <si>
     <t>2101</t>
   </si>
   <si>
@@ -1142,6 +1154,12 @@
     <t>Morte_013</t>
   </si>
   <si>
+    <t>2350</t>
+  </si>
+  <si>
+    <t>Morte_998_3</t>
+  </si>
+  <si>
     <t>311111</t>
   </si>
   <si>
@@ -1352,6 +1370,12 @@
     <t>Matr_018</t>
   </si>
   <si>
+    <t>369000</t>
+  </si>
+  <si>
+    <t>Matr_998_3</t>
+  </si>
+  <si>
     <t>411111</t>
   </si>
   <si>
@@ -1478,6 +1502,12 @@
     <t>UnCiv_008</t>
   </si>
   <si>
+    <t>459000</t>
+  </si>
+  <si>
+    <t>UnCiv_998_3</t>
+  </si>
+  <si>
     <t>51101</t>
   </si>
   <si>
@@ -1770,6 +1800,12 @@
   </si>
   <si>
     <t>Citt_048</t>
+  </si>
+  <si>
+    <t>53800</t>
+  </si>
+  <si>
+    <t>Citt_998_3</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:C299"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4182,6 +4218,54 @@
         <v>585</v>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1272,6 +1272,12 @@
   </si>
   <si>
     <t>Trascr_Matr_005</t>
+  </si>
+  <si>
+    <t>336000</t>
+  </si>
+  <si>
+    <t>Trascr_Matr_006</t>
   </si>
   <si>
     <t>339999</t>
@@ -1864,7 +1870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C299"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4266,6 +4272,14 @@
         <v>597</v>
       </c>
     </row>
+    <row r="300">
+      <c r="A300" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1050,6 +1050,12 @@
   </si>
   <si>
     <t>Dic_Nasc_998_3</t>
+  </si>
+  <si>
+    <t>14950000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_998_4</t>
   </si>
   <si>
     <t>2101</t>
@@ -1870,7 +1876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C301"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4280,6 +4286,14 @@
         <v>599</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1050,12 +1050,6 @@
   </si>
   <si>
     <t>Dic_Nasc_998_3</t>
-  </si>
-  <si>
-    <t>14950000</t>
-  </si>
-  <si>
-    <t>Dic_Nasc_998_4</t>
   </si>
   <si>
     <t>2101</t>
@@ -1876,7 +1870,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4286,14 +4280,6 @@
         <v>599</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -1052,6 +1052,12 @@
     <t>Dic_Nasc_998_3</t>
   </si>
   <si>
+    <t>14950000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_998_4</t>
+  </si>
+  <si>
     <t>2101</t>
   </si>
   <si>
@@ -1344,12 +1350,6 @@
   </si>
   <si>
     <t>Matr_Riconc_001</t>
-  </si>
-  <si>
-    <t>359999</t>
-  </si>
-  <si>
-    <t>Rico_Matr_999</t>
   </si>
   <si>
     <t>366999</t>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="620">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -20,6 +20,12 @@
     <t>COD ANSC</t>
   </si>
   <si>
+    <t>10000000</t>
+  </si>
+  <si>
+    <t>Nasc_ann_auto</t>
+  </si>
+  <si>
     <t>11111000</t>
   </si>
   <si>
@@ -878,6 +884,12 @@
     <t>Trascr_022</t>
   </si>
   <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>Trascr_027</t>
+  </si>
+  <si>
     <t>1321</t>
   </si>
   <si>
@@ -1058,6 +1070,12 @@
     <t>Dic_Nasc_998_4</t>
   </si>
   <si>
+    <t>20000000</t>
+  </si>
+  <si>
+    <t>Morte_ann_auto</t>
+  </si>
+  <si>
     <t>2101</t>
   </si>
   <si>
@@ -1106,6 +1124,12 @@
     <t>Morte_007</t>
   </si>
   <si>
+    <t>2214</t>
+  </si>
+  <si>
+    <t>Morte_014</t>
+  </si>
+  <si>
     <t>2221</t>
   </si>
   <si>
@@ -1166,6 +1190,12 @@
     <t>Morte_998_3</t>
   </si>
   <si>
+    <t>30000000</t>
+  </si>
+  <si>
+    <t>Matr_ann_auto</t>
+  </si>
+  <si>
     <t>311111</t>
   </si>
   <si>
@@ -1226,6 +1256,12 @@
     <t>Matr_013</t>
   </si>
   <si>
+    <t>313111</t>
+  </si>
+  <si>
+    <t>Matr_019</t>
+  </si>
+  <si>
     <t>319999</t>
   </si>
   <si>
@@ -1352,6 +1388,12 @@
     <t>Matr_Riconc_001</t>
   </si>
   <si>
+    <t>359999</t>
+  </si>
+  <si>
+    <t>Matr_Riconc_999</t>
+  </si>
+  <si>
     <t>366999</t>
   </si>
   <si>
@@ -1382,6 +1424,12 @@
     <t>Matr_998_3</t>
   </si>
   <si>
+    <t>40000000</t>
+  </si>
+  <si>
+    <t>UnCiv_ann_auto</t>
+  </si>
+  <si>
     <t>411111</t>
   </si>
   <si>
@@ -1442,6 +1490,12 @@
     <t>Trascr_UnCiv_004</t>
   </si>
   <si>
+    <t>436000</t>
+  </si>
+  <si>
+    <t>Trascr_UnCiv_005</t>
+  </si>
+  <si>
     <t>439999</t>
   </si>
   <si>
@@ -1512,6 +1566,12 @@
   </si>
   <si>
     <t>UnCiv_998_3</t>
+  </si>
+  <si>
+    <t>50000000</t>
+  </si>
+  <si>
+    <t>Citt_ann_auto</t>
   </si>
   <si>
     <t>51101</t>
@@ -1870,7 +1930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C300"/>
+  <dimension ref="A1:C310"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4280,6 +4340,86 @@
         <v>599</v>
       </c>
     </row>
+    <row r="301">
+      <c r="A301" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="618">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1122,12 +1122,6 @@
   </si>
   <si>
     <t>Morte_007</t>
-  </si>
-  <si>
-    <t>2214</t>
-  </si>
-  <si>
-    <t>Morte_014</t>
   </si>
   <si>
     <t>2221</t>
@@ -1930,7 +1924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C310"/>
+  <dimension ref="A1:C309"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4412,14 +4406,6 @@
         <v>617</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="628">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1064,6 +1064,12 @@
     <t>Dic_Nasc_998_3</t>
   </si>
   <si>
+    <t>14860000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_998_5</t>
+  </si>
+  <si>
     <t>14950000</t>
   </si>
   <si>
@@ -1184,6 +1190,12 @@
     <t>Morte_998_3</t>
   </si>
   <si>
+    <t>2351</t>
+  </si>
+  <si>
+    <t>Morte_998_4</t>
+  </si>
+  <si>
     <t>30000000</t>
   </si>
   <si>
@@ -1418,6 +1430,12 @@
     <t>Matr_998_3</t>
   </si>
   <si>
+    <t>369100</t>
+  </si>
+  <si>
+    <t>Matr_998_4</t>
+  </si>
+  <si>
     <t>40000000</t>
   </si>
   <si>
@@ -1562,6 +1580,12 @@
     <t>UnCiv_998_3</t>
   </si>
   <si>
+    <t>459100</t>
+  </si>
+  <si>
+    <t>UnCiv_998_4</t>
+  </si>
+  <si>
     <t>50000000</t>
   </si>
   <si>
@@ -1866,6 +1890,12 @@
   </si>
   <si>
     <t>Citt_998_3</t>
+  </si>
+  <si>
+    <t>53810</t>
+  </si>
+  <si>
+    <t>Citt_998_4</t>
   </si>
 </sst>
 </file>
@@ -1924,7 +1954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C309"/>
+  <dimension ref="A1:C314"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4406,6 +4436,46 @@
         <v>617</v>
       </c>
     </row>
+    <row r="310">
+      <c r="A310" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="660">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -308,6 +308,12 @@
     <t>Dic_Nasc_023</t>
   </si>
   <si>
+    <t>11211204</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_133</t>
+  </si>
+  <si>
     <t>11212002</t>
   </si>
   <si>
@@ -416,6 +422,42 @@
     <t>Dic_Nasc_113</t>
   </si>
   <si>
+    <t>11218000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_121</t>
+  </si>
+  <si>
+    <t>11218100</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_122</t>
+  </si>
+  <si>
+    <t>11218200</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_123</t>
+  </si>
+  <si>
+    <t>11219000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_124</t>
+  </si>
+  <si>
+    <t>11219100</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_125</t>
+  </si>
+  <si>
+    <t>11219200</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_126</t>
+  </si>
+  <si>
     <t>11221001</t>
   </si>
   <si>
@@ -560,6 +602,42 @@
     <t>Dic_Nasc_107</t>
   </si>
   <si>
+    <t>11228000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_127</t>
+  </si>
+  <si>
+    <t>11228100</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_128</t>
+  </si>
+  <si>
+    <t>11228200</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_129</t>
+  </si>
+  <si>
+    <t>11229000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_130</t>
+  </si>
+  <si>
+    <t>11229100</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_131</t>
+  </si>
+  <si>
+    <t>11229200</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_132</t>
+  </si>
+  <si>
     <t>11411010</t>
   </si>
   <si>
@@ -1022,6 +1100,18 @@
     <t>Trascr_026</t>
   </si>
   <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>Trascr_028</t>
+  </si>
+  <si>
+    <t>1382</t>
+  </si>
+  <si>
+    <t>Trascr_029</t>
+  </si>
+  <si>
     <t>1399</t>
   </si>
   <si>
@@ -1854,6 +1944,12 @@
   </si>
   <si>
     <t>Citt_035</t>
+  </si>
+  <si>
+    <t>52821</t>
+  </si>
+  <si>
+    <t>Citt_049</t>
   </si>
   <si>
     <t>52999</t>
@@ -1954,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C314"/>
+  <dimension ref="A1:C330"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4476,6 +4572,134 @@
         <v>627</v>
       </c>
     </row>
+    <row r="315">
+      <c r="A315" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="672">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1004,6 +1004,18 @@
     <t>Trascr_012</t>
   </si>
   <si>
+    <t>1332</t>
+  </si>
+  <si>
+    <t>Trascr_031</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>Trascr_032</t>
+  </si>
+  <si>
     <t>1341</t>
   </si>
   <si>
@@ -1058,6 +1070,12 @@
     <t>Trascr_021</t>
   </si>
   <si>
+    <t>1355</t>
+  </si>
+  <si>
+    <t>Trascr_030</t>
+  </si>
+  <si>
     <t>1361</t>
   </si>
   <si>
@@ -1166,6 +1184,18 @@
     <t>Dic_Nasc_998_4</t>
   </si>
   <si>
+    <t>14960000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_998_6</t>
+  </si>
+  <si>
+    <t>14970000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_998_7</t>
+  </si>
+  <si>
     <t>20000000</t>
   </si>
   <si>
@@ -1674,6 +1704,12 @@
   </si>
   <si>
     <t>UnCiv_998_4</t>
+  </si>
+  <si>
+    <t>459200</t>
+  </si>
+  <si>
+    <t>UnCiv_998_5</t>
   </si>
   <si>
     <t>50000000</t>
@@ -2050,7 +2086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C330"/>
+  <dimension ref="A1:C336"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4700,6 +4736,54 @@
         <v>659</v>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="674">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1176,6 +1176,12 @@
   </si>
   <si>
     <t>Dic_Nasc_998_5</t>
+  </si>
+  <si>
+    <t>14870000</t>
+  </si>
+  <si>
+    <t>Dic_Nasc_998_8</t>
   </si>
   <si>
     <t>14950000</t>
@@ -2086,7 +2092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C336"/>
+  <dimension ref="A1:C337"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4784,6 +4790,14 @@
         <v>671</v>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="676">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1278,6 +1278,12 @@
   </si>
   <si>
     <t>Morte_011</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>Morte_015</t>
   </si>
   <si>
     <t>2299</t>
@@ -2092,7 +2098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C337"/>
+  <dimension ref="A1:C338"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4798,6 +4804,14 @@
         <v>673</v>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1340,10 +1340,22 @@
     <t>Matr_001</t>
   </si>
   <si>
+    <t>311112</t>
+  </si>
+  <si>
+    <t>Matr_020</t>
+  </si>
+  <si>
     <t>311121</t>
   </si>
   <si>
     <t>Matr_009</t>
+  </si>
+  <si>
+    <t>311122</t>
+  </si>
+  <si>
+    <t>Matr_021</t>
   </si>
   <si>
     <t>311211</t>
@@ -2098,7 +2110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C338"/>
+  <dimension ref="A1:C340"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4812,6 +4824,22 @@
         <v>675</v>
       </c>
     </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="682">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1686,6 +1686,12 @@
   </si>
   <si>
     <t>Sciogl_UnCiv_005</t>
+  </si>
+  <si>
+    <t>446000</t>
+  </si>
+  <si>
+    <t>Sciogl_UnCiv_006</t>
   </si>
   <si>
     <t>449999</t>
@@ -2110,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C340"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4840,6 +4846,14 @@
         <v>679</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1340,22 +1340,10 @@
     <t>Matr_001</t>
   </si>
   <si>
-    <t>311112</t>
-  </si>
-  <si>
-    <t>Matr_020</t>
-  </si>
-  <si>
     <t>311121</t>
   </si>
   <si>
     <t>Matr_009</t>
-  </si>
-  <si>
-    <t>311122</t>
-  </si>
-  <si>
-    <t>Matr_021</t>
   </si>
   <si>
     <t>311211</t>
@@ -2116,7 +2104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C341"/>
+  <dimension ref="A1:C339"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4838,22 +4826,6 @@
         <v>677</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1416,6 +1416,12 @@
   </si>
   <si>
     <t>Matr_008</t>
+  </si>
+  <si>
+    <t>323111</t>
+  </si>
+  <si>
+    <t>Matr_022</t>
   </si>
   <si>
     <t>329999</t>
@@ -2104,7 +2110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C339"/>
+  <dimension ref="A1:C340"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4826,6 +4832,14 @@
         <v>677</v>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="682">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -930,6 +930,12 @@
   </si>
   <si>
     <t>Rico_015</t>
+  </si>
+  <si>
+    <t>12422300</t>
+  </si>
+  <si>
+    <t>Rico_021</t>
   </si>
   <si>
     <t>12999999</t>
@@ -2110,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C340"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4840,6 +4846,14 @@
         <v>679</v>
       </c>
     </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1020,6 +1020,18 @@
   </si>
   <si>
     <t>Trascr_032</t>
+  </si>
+  <si>
+    <t>1334</t>
+  </si>
+  <si>
+    <t>Trascr_035</t>
+  </si>
+  <si>
+    <t>1335</t>
+  </si>
+  <si>
+    <t>Trascr_036</t>
   </si>
   <si>
     <t>1341</t>
@@ -2116,7 +2128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C341"/>
+  <dimension ref="A1:C343"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4854,6 +4866,22 @@
         <v>681</v>
       </c>
     </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="700">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -974,6 +974,12 @@
     <t>Trascr_027</t>
   </si>
   <si>
+    <t>1318</t>
+  </si>
+  <si>
+    <t>Trascr_037</t>
+  </si>
+  <si>
     <t>1321</t>
   </si>
   <si>
@@ -1094,6 +1100,12 @@
     <t>Trascr_030</t>
   </si>
   <si>
+    <t>1356</t>
+  </si>
+  <si>
+    <t>Trascr_034</t>
+  </si>
+  <si>
     <t>1361</t>
   </si>
   <si>
@@ -1250,6 +1262,18 @@
     <t>Morte_004</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>Morte_016</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>Morte_017</t>
+  </si>
+  <si>
     <t>2199</t>
   </si>
   <si>
@@ -1274,6 +1298,12 @@
     <t>Morte_007</t>
   </si>
   <si>
+    <t>2215</t>
+  </si>
+  <si>
+    <t>Morte_018</t>
+  </si>
+  <si>
     <t>2221</t>
   </si>
   <si>
@@ -1556,6 +1586,12 @@
     <t>Matr_Riconc_999</t>
   </si>
   <si>
+    <t>365699</t>
+  </si>
+  <si>
+    <t>Matr_023</t>
+  </si>
+  <si>
     <t>366999</t>
   </si>
   <si>
@@ -1704,6 +1740,12 @@
   </si>
   <si>
     <t>Sciogl_UnCiv_006</t>
+  </si>
+  <si>
+    <t>447000</t>
+  </si>
+  <si>
+    <t>Sciogl_UnCiv_007</t>
   </si>
   <si>
     <t>449999</t>
@@ -2128,7 +2170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C343"/>
+  <dimension ref="A1:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4882,6 +4924,62 @@
         <v>685</v>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1968,6 +1968,12 @@
   </si>
   <si>
     <t>Citt_046</t>
+  </si>
+  <si>
+    <t>52155</t>
+  </si>
+  <si>
+    <t>Citt_050</t>
   </si>
   <si>
     <t>52211</t>
@@ -2170,7 +2176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C350"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4980,6 +4986,14 @@
         <v>699</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="700">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -1968,12 +1968,6 @@
   </si>
   <si>
     <t>Citt_046</t>
-  </si>
-  <si>
-    <t>52155</t>
-  </si>
-  <si>
-    <t>Citt_050</t>
   </si>
   <si>
     <t>52211</t>
@@ -2176,7 +2170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C351"/>
+  <dimension ref="A1:C350"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4986,14 +4980,6 @@
         <v>699</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Mapping_casi_uso/3_dec_use_case.xlsx
+++ b/docs/Mapping_casi_uso/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="716">
   <si>
     <t>ID USECASE</t>
   </si>
@@ -974,6 +974,12 @@
     <t>Trascr_027</t>
   </si>
   <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>Trascr_038</t>
+  </si>
+  <si>
     <t>1318</t>
   </si>
   <si>
@@ -1274,6 +1280,12 @@
     <t>Morte_017</t>
   </si>
   <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>Morte_019</t>
+  </si>
+  <si>
     <t>2199</t>
   </si>
   <si>
@@ -1748,6 +1760,12 @@
     <t>Sciogl_UnCiv_007</t>
   </si>
   <si>
+    <t>448000</t>
+  </si>
+  <si>
+    <t>Sciogl_UnCiv_008</t>
+  </si>
+  <si>
     <t>449999</t>
   </si>
   <si>
@@ -1850,6 +1868,18 @@
     <t>Citt_007</t>
   </si>
   <si>
+    <t>51111</t>
+  </si>
+  <si>
+    <t>Citt_051</t>
+  </si>
+  <si>
+    <t>51112</t>
+  </si>
+  <si>
+    <t>Citt_052</t>
+  </si>
+  <si>
     <t>51201</t>
   </si>
   <si>
@@ -1898,6 +1928,12 @@
     <t>Citt_040</t>
   </si>
   <si>
+    <t>51307</t>
+  </si>
+  <si>
+    <t>Citt_042</t>
+  </si>
+  <si>
     <t>51999</t>
   </si>
   <si>
@@ -1968,6 +2004,18 @@
   </si>
   <si>
     <t>Citt_046</t>
+  </si>
+  <si>
+    <t>52155</t>
+  </si>
+  <si>
+    <t>Citt_050</t>
+  </si>
+  <si>
+    <t>52156</t>
+  </si>
+  <si>
+    <t>Citt_053</t>
   </si>
   <si>
     <t>52211</t>
@@ -2170,7 +2218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C350"/>
+  <dimension ref="A1:C358"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -4980,6 +5028,70 @@
         <v>699</v>
       </c>
     </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
